--- a/olympus/M319.xlsx
+++ b/olympus/M319.xlsx
@@ -245,200 +245,200 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2023-07-08 00:44:00</t>
+          <t>2023-07-07 23:44:00</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.12007733434438705</v>
+        <v>0.0974951982498169</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.16520622372627258</v>
+        <v>0.0912541002035141</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.1287161111831665</v>
+        <v>2.0596280097961426</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.1295831203460693</v>
+        <v>2.177699089050293</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.2901010513305664</v>
+        <v>0.0</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>2.922300100326538</v>
+        <v>4.753200531005859</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>40.43574142456055</v>
+        <v>40.512447357177734</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>-73.73799896240234</v>
+        <v>-73.98059844970703</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1010.1742553710938</v>
+        <v>1010.1195068359375</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>2.9000000953674316</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3.0</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.799999952316284</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>13.966955184936523</v>
+        <v>17.300249099731445</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>27.816370010375977</v>
+        <v>27.69536018371582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2023-07-08 02:44:00</t>
+          <t>2023-07-08 00:44:00</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.16524161398410797</v>
+        <v>0.12007733434438705</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.20020559430122375</v>
+        <v>0.16520622372627258</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.812131404876709</v>
+        <v>0.0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.661959409713745</v>
+        <v>1.1287161111831665</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.682157278060913</v>
+        <v>1.1295831203460693</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.765019416809082</v>
+        <v>1.2901010513305664</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0</v>
+        <v>2.922300100326538</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>40.36648941040039</v>
+        <v>40.43574142456055</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>-73.0950927734375</v>
+        <v>-73.73799896240234</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1010.28369140625</v>
+        <v>1010.1742553710938</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>9.5</v>
+        <v>2.9000000953674316</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.5</v>
+        <v>3.0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>3.0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>23.049850463867188</v>
+        <v>13.966955184936523</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>27.537843704223633</v>
+        <v>27.816370010375977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2023-07-08 04:44:00</t>
+          <t>2023-07-08 01:44:00</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.008945540525019169</v>
+        <v>0.14265947043895721</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.36566102504730225</v>
+        <v>0.23915834724903107</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.703758478164673</v>
+        <v>0.799508273601532</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.561857223510742</v>
+        <v>0.7350599765777588</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.557856798171997</v>
+        <v>0.7559719085693359</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.681241035461426</v>
+        <v>0.8075366020202637</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.0</v>
+        <v>2.310299873352051</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>40.40171813964844</v>
+        <v>40.367000579833984</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>-72.1113510131836</v>
+        <v>-73.3386001586914</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1010.39306640625</v>
+        <v>1010.2289428710938</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>1.5</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>1.899999976158142</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>2.1000001430511475</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>0.0</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>23.5997314453125</v>
+        <v>14.900300025939941</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>26.98360252380371</v>
+        <v>27.981353759765625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2023-07-08 06:44:00</t>
+          <t>2023-07-08 02:44:00</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.05032649636268616</v>
+        <v>0.16524161398410797</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.3234652280807495</v>
+        <v>0.20020559430122375</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.6927809715270996</v>
+        <v>2.812131404876709</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.5584700107574463</v>
+        <v>2.661959409713745</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.5510334968566895</v>
+        <v>2.682157278060913</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.655667543411255</v>
+        <v>2.765019416809082</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0.0</v>
@@ -447,56 +447,56 @@
         <v>0.0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>40.40317916870117</v>
+        <v>40.36648941040039</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>-71.11129760742188</v>
+        <v>-73.0950927734375</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1010.5025024414062</v>
+        <v>1010.28369140625</v>
       </c>
       <c r="M6" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O6" s="2" t="n">
         <v>9.199999809265137</v>
       </c>
-      <c r="N6" s="2" t="n">
-        <v>9.300000190734863</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>8.800000190734863</v>
-      </c>
       <c r="P6" s="2" t="n">
-        <v>9.0</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>23.29949951171875</v>
+        <v>23.049850463867188</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>26.617042541503906</v>
+        <v>27.537843704223633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2023-07-08 08:44:00</t>
+          <t>2023-07-08 03:44:00</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.09170745313167572</v>
+        <v>0.18782374262809753</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.2774010896682739</v>
+        <v>0.3175242841243744</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2.6763710975646973</v>
+        <v>2.6971986293792725</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.536545991897583</v>
+        <v>2.5532188415527344</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.5318965911865234</v>
+        <v>2.575503349304199</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.6044681072235107</v>
+        <v>2.6542258262634277</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>0.0</v>
@@ -505,56 +505,56 @@
         <v>0.0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>40.41764831542969</v>
+        <v>40.38328552246094</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>-70.12309265136719</v>
+        <v>-72.60669708251953</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1010.6119384765625</v>
+        <v>1010.33837890625</v>
       </c>
       <c r="M7" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.5</v>
       </c>
       <c r="O7" s="2" t="n">
         <v>8.800000190734863</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>23.066537857055664</v>
+        <v>23.250076293945312</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>26.05324363708496</v>
+        <v>27.308544158935547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2023-07-08 10:44:00</t>
+          <t>2023-07-08 04:44:00</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.13308840990066528</v>
+        <v>0.008945540525019169</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.35994377732276917</v>
+        <v>0.36566102504730225</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.7004823684692383</v>
+        <v>2.703758478164673</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.5539770126342773</v>
+        <v>2.561857223510742</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.5564775466918945</v>
+        <v>2.557856798171997</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.6772351264953613</v>
+        <v>2.681241035461426</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>0.0</v>
@@ -563,4032 +563,8382 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>40.43852996826172</v>
+        <v>40.40171813964844</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>-69.15288543701172</v>
+        <v>-72.1113510131836</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1010.7213134765625</v>
+        <v>1010.39306640625</v>
       </c>
       <c r="M8" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="N8" s="2" t="n">
         <v>9.199999809265137</v>
       </c>
-      <c r="N8" s="2" t="n">
-        <v>9.300000190734863</v>
-      </c>
       <c r="O8" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>8.90000057220459</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>23.049850463867188</v>
+        <v>23.5997314453125</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>24.020029067993164</v>
+        <v>26.98360252380371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2023-07-08 12:44:00</t>
+          <t>2023-07-08 05:44:00</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.17446936666965485</v>
+        <v>0.029636017978191376</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.47798824310302734</v>
+        <v>0.25941598415374756</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.3097712993621826</v>
+        <v>2.6860573291778564</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.0</v>
+        <v>2.545668363571167</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.1655750274658203</v>
+        <v>2.551150321960449</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.240781784057617</v>
+        <v>2.6728203296661377</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.8619000315666199</v>
+        <v>0.0</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>40.484073638916016</v>
+        <v>40.394935607910156</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>-68.20429229736328</v>
+        <v>-71.61196899414062</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1010.8307495117188</v>
+        <v>1010.4478149414062</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.800000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.900000095367432</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>4.599999904632568</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.700000286102295</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>18.53345489501953</v>
+        <v>23.37505531311035</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>24.600000381469727</v>
+        <v>26.760671615600586</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2023-07-08 14:44:00</t>
+          <t>2023-07-08 06:44:00</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.01056191697716713</v>
+        <v>0.05032649636268616</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.005443011410534382</v>
+        <v>0.3234652280807495</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.733096122741699</v>
+        <v>2.6927809715270996</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5584700107574463</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.6354315280914307</v>
+        <v>2.5510334968566895</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.7128758430480957</v>
+        <v>2.655667543411255</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>4.651200294494629</v>
+        <v>0.0</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>40.59272003173828</v>
+        <v>40.40317916870117</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>-67.28909301757812</v>
+        <v>-71.11129760742188</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1010.940185546875</v>
+        <v>1010.5025024414062</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>12.300000190734863</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>9.0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>23.79949378967285</v>
+        <v>23.29949951171875</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>26.608619689941406</v>
+        <v>26.617042541503906</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2023-07-08 16:44:00</t>
+          <t>2023-07-08 07:44:00</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.05217756703495979</v>
+        <v>0.07101697474718094</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.011461715213954449</v>
+        <v>0.31296306848526</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2.77626633644104</v>
+        <v>2.69228196144104</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5385351181030273</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.6550426483154297</v>
+        <v>2.536489963531494</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.772308826446533</v>
+        <v>2.615626573562622</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>4.630800247192383</v>
+        <v>0.0</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>40.87679672241211</v>
+        <v>40.41069793701172</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>-66.37063598632812</v>
+        <v>-70.61526489257812</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1011.1405029296875</v>
+        <v>1010.5571899414062</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>11.90000057220459</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>9.0</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>23.66651153564453</v>
+        <v>23.299598693847656</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>25.415508270263672</v>
+        <v>26.476879119873047</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>2023-07-08 18:44:00</t>
+          <t>2023-07-08 08:44:00</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.09379321336746216</v>
+        <v>0.09170745313167572</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.01748041808605194</v>
+        <v>0.2774010896682739</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2.7819998264312744</v>
+        <v>2.6763710975646973</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.0</v>
+        <v>2.536545991897583</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.667835235595703</v>
+        <v>2.5318965911865234</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.773482084274292</v>
+        <v>2.6044681072235107</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>4.197299957275391</v>
+        <v>0.0</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>41.179588317871094</v>
+        <v>40.41764831542969</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>-65.51988983154297</v>
+        <v>-70.12309265136719</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1011.4505615234375</v>
+        <v>1010.6119384765625</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>12.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>12.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>7.200000286102295</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>7.200000286102295</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>22.798397064208984</v>
+        <v>23.066537857055664</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>24.11798858642578</v>
+        <v>26.05324363708496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>2023-07-08 20:44:00</t>
+          <t>2023-07-08 09:44:00</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.13540886342525482</v>
+        <v>0.1123979315161705</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.023499121889472008</v>
+        <v>0.34521493315696716</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>2.7727701663970947</v>
+        <v>2.6963438987731934</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.0</v>
+        <v>2.539036273956299</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.6561291217803955</v>
+        <v>2.5589230060577393</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.7549948692321777</v>
+        <v>2.6766254901885986</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>4.773599624633789</v>
+        <v>0.0</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>41.5050048828125</v>
+        <v>40.42728042602539</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>-64.59285736083984</v>
+        <v>-69.63518524169922</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1011.7606201171875</v>
+        <v>1010.6666259765625</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>12.40000057220459</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>23.999849319458008</v>
+        <v>22.64987564086914</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>26.367633819580078</v>
+        <v>25.723398208618164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2023-07-08 22:44:00</t>
+          <t>2023-07-08 10:44:00</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.17702451348304749</v>
+        <v>0.13308840990066528</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.029517823830246925</v>
+        <v>0.35994377732276917</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2.747936487197876</v>
+        <v>2.7004823684692383</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5539770126342773</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.6334784030914307</v>
+        <v>2.5564775466918945</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.7378158569335938</v>
+        <v>2.6772351264953613</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>4.421700477600098</v>
+        <v>0.0</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>41.80613708496094</v>
+        <v>40.43852996826172</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>-63.73536682128906</v>
+        <v>-69.15288543701172</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1012.0706787109375</v>
+        <v>1010.7213134765625</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>12.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>12.699999809265137</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>7.5</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>22.800804138183594</v>
+        <v>23.049850463867188</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>24.406007766723633</v>
+        <v>24.020029067993164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>2023-07-09 00:44:00</t>
+          <t>2023-07-08 11:44:00</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.03665969893336296</v>
+        <v>0.15377888083457947</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.03553652763366699</v>
+        <v>0.4401160180568695</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2.7527358531951904</v>
+        <v>2.7366409301757812</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5780036449432373</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.629387617111206</v>
+        <v>2.58705472946167</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.723334550857544</v>
+        <v>2.6879937648773193</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>4.396200180053711</v>
+        <v>0.0</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>42.176334381103516</v>
+        <v>40.45565414428711</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>-62.83885192871094</v>
+        <v>-68.66858673095703</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1012.4281005859375</v>
+        <v>1010.7760620117188</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>12.300000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>12.40000057220459</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>7.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>23.25742530822754</v>
+        <v>22.96672248840332</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>24.395532608032227</v>
+        <v>24.160655975341797</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>2023-07-09 02:44:00</t>
+          <t>2023-07-08 12:44:00</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.1500195860862732</v>
+        <v>0.17446936666965485</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.04155522957444191</v>
+        <v>0.47798824310302734</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2.7350573539733887</v>
+        <v>2.3097712993621826</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.652327060699463</v>
+        <v>2.1655750274658203</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.733917474746704</v>
+        <v>2.240781784057617</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>4.130999565124512</v>
+        <v>0.8619000315666199</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>42.48966598510742</v>
+        <v>40.484073638916016</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>-61.88401794433594</v>
+        <v>-68.20429229736328</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1012.8194580078125</v>
+        <v>1010.8307495117188</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>7.200000286102295</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>7.5</v>
+        <v>4.700000286102295</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>22.999834060668945</v>
+        <v>18.53345489501953</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>23.318958282470703</v>
+        <v>24.600000381469727</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>2023-07-09 04:44:00</t>
+          <t>2023-07-08 13:44:00</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.004298901651054621</v>
+        <v>0.19515983760356903</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.047573935240507126</v>
+        <v>0.0024336599744856358</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2.728217363357544</v>
+        <v>2.780115842819214</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.641007900238037</v>
+        <v>2.6328978538513184</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.7216970920562744</v>
+        <v>2.7347779273986816</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>4.120800495147705</v>
+        <v>4.661400318145752</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>42.79712677001953</v>
+        <v>40.517066955566406</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>-60.95362854003906</v>
+        <v>-67.76451873779297</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1013.2108154296875</v>
+        <v>1010.8854370117188</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>12.40000057220459</v>
+        <v>11.800000190734863</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>7.700000286102295</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>7.5</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>23.200000762939453</v>
+        <v>23.600303649902344</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>23.342994689941406</v>
+        <v>25.642074584960938</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2023-07-09 06:44:00</t>
+          <t>2023-07-08 14:44:00</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.02016555704176426</v>
+        <v>0.01056191697716713</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.05359263718128204</v>
+        <v>0.005443011410534382</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2.749476909637451</v>
+        <v>2.733096122741699</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.653792142868042</v>
+        <v>2.6354315280914307</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.7365012168884277</v>
+        <v>2.7128758430480957</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>4.182000160217285</v>
+        <v>4.651200294494629</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>43.08897399902344</v>
+        <v>40.59272003173828</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>-60.0113525390625</v>
+        <v>-67.28909301757812</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1013.6021728515625</v>
+        <v>1010.940185546875</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>12.300000190734863</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>7.5</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>23.299999237060547</v>
+        <v>23.79949378967285</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>22.8758487701416</v>
+        <v>26.608619689941406</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2023-07-09 08:44:00</t>
+          <t>2023-07-08 15:44:00</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.036032214760780334</v>
+        <v>0.03136974200606346</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.05961133912205696</v>
+        <v>0.008452363312244415</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2.73761248588562</v>
+        <v>2.7741262912750244</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.6394755840301514</v>
+        <v>2.649103879928589</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.749081611633301</v>
+        <v>2.742983102798462</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>2.7692999839782715</v>
+        <v>4.768499851226807</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>43.37088394165039</v>
+        <v>40.71784210205078</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>-59.052467346191406</v>
+        <v>-66.82506561279297</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1013.9935302734375</v>
+        <v>1010.994873046875</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>12.40000057220459</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>8.0</v>
+        <v>8.5</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>22.000080108642578</v>
+        <v>23.233156204223633</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>22.232505798339844</v>
+        <v>25.334375381469727</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2023-07-09 10:44:00</t>
+          <t>2023-07-08 16:44:00</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.05189887061715126</v>
+        <v>0.05217756703495979</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.06563004106283188</v>
+        <v>0.011461715213954449</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2.7664732933044434</v>
+        <v>2.77626633644104</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.6010730266571045</v>
+        <v>2.6550426483154297</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0.0</v>
+        <v>2.772308826446533</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>4.401299953460693</v>
+        <v>4.630800247192383</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>43.65377426147461</v>
+        <v>40.87679672241211</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>-58.11092758178711</v>
+        <v>-66.37063598632812</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1014.3848876953125</v>
+        <v>1011.1405029296875</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>7.300000190734863</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>7.300000190734863</v>
+        <v>11.90000057220459</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>7.099999904632568</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>7.0</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>21.53275489807129</v>
+        <v>23.66651153564453</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>21.419496536254883</v>
+        <v>25.415508270263672</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2023-07-09 12:44:00</t>
+          <t>2023-07-08 17:44:00</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.06776552647352219</v>
+        <v>0.07298538833856583</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.0716487467288971</v>
+        <v>0.014471066184341908</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2.5208420753479004</v>
+        <v>2.7811074256896973</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.384749412536621</v>
+        <v>2.652146577835083</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.4143052101135254</v>
+        <v>2.7553212642669678</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>2.7183001041412354</v>
+        <v>3.5955002307891846</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>43.94295120239258</v>
+        <v>41.03404998779297</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-57.233985900878906</v>
+        <v>-65.92092895507812</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1014.7762451171875</v>
+        <v>1011.2955322265625</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>7.300000190734863</v>
+        <v>13.40000057220459</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>7.300000190734863</v>
+        <v>13.300000190734863</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>7.0</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>7.099999904632568</v>
+        <v>0.0</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>21.228498458862305</v>
+        <v>21.999866485595703</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>21.495391845703125</v>
+        <v>25.3923282623291</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2023-07-09 14:44:00</t>
+          <t>2023-07-08 18:44:00</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.02541401796042919</v>
+        <v>0.09379321336746216</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.07766745239496231</v>
+        <v>0.01748041808605194</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2.7807562351226807</v>
+        <v>2.7819998264312744</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.6289825439453125</v>
+        <v>2.667835235595703</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.6334495544433594</v>
+        <v>2.773482084274292</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>4.248300552368164</v>
+        <v>4.197299957275391</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>44.248104095458984</v>
+        <v>41.179588317871094</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>-56.26685333251953</v>
+        <v>-65.51988983154297</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1015.1676025390625</v>
+        <v>1011.4505615234375</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>12.300000190734863</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>12.5</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>7.300000190734863</v>
+        <v>7.200000286102295</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>7.5</v>
+        <v>7.200000286102295</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>24.140216827392578</v>
+        <v>22.798397064208984</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>20.9477481842041</v>
+        <v>24.11798858642578</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2023-07-09 16:44:00</t>
+          <t>2023-07-08 19:44:00</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.06856662780046463</v>
+        <v>0.11460103839635849</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.08368615061044693</v>
+        <v>0.0204897690564394</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>2.7741546630859375</v>
+        <v>2.7980048656463623</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.6478683948516846</v>
+        <v>2.649144411087036</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.655395269393921</v>
+        <v>2.7518796920776367</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>4.2534003257751465</v>
+        <v>4.426800727844238</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>44.534122467041016</v>
+        <v>41.34273147583008</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>-55.25614547729492</v>
+        <v>-65.05838775634766</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1015.5589599609375</v>
+        <v>1011.6055908203125</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>12.40000057220459</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>7.300000190734863</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>7.5</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>23.322265625</v>
+        <v>23.69879913330078</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>20.952646255493164</v>
+        <v>25.596172332763672</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2023-07-09 18:44:00</t>
+          <t>2023-07-08 20:44:00</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.11171924322843552</v>
+        <v>0.13540886342525482</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.08970485627651215</v>
+        <v>0.023499121889472008</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2.7610177993774414</v>
+        <v>2.7727701663970947</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.6379315853118896</v>
+        <v>2.6561291217803955</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.6191794872283936</v>
+        <v>2.7549948692321777</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>4.17180061340332</v>
+        <v>4.773599624633789</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>44.818546295166016</v>
+        <v>41.5050048828125</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>-54.24390411376953</v>
+        <v>-64.59285736083984</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1015.9503173828125</v>
+        <v>1011.7606201171875</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>12.0</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>12.40000057220459</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>7.300000190734863</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>23.266799926757812</v>
+        <v>23.999849319458008</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>20.60809898376465</v>
+        <v>26.367633819580078</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2023-07-09 20:44:00</t>
+          <t>2023-07-08 21:44:00</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.1548718512058258</v>
+        <v>0.15621669590473175</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.09572356194257736</v>
+        <v>0.026508472859859467</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2.7627317905426025</v>
+        <v>2.7980024814605713</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.20262502133846283</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.6415300369262695</v>
+        <v>2.6449990272521973</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.663830280303955</v>
+        <v>2.746534824371338</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>4.141200065612793</v>
+        <v>3.0141003131866455</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>45.09278106689453</v>
+        <v>41.64015197753906</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>-53.21882247924805</v>
+        <v>-64.18736267089844</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1016.3416748046875</v>
+        <v>1011.9156494140625</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>12.0</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>11.800000190734863</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>7.200000286102295</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.5</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>24.19969940185547</v>
+        <v>20.816497802734375</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>19.398515701293945</v>
+        <v>24.269508361816406</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2023-07-09 22:44:00</t>
+          <t>2023-07-08 22:44:00</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.1980244666337967</v>
+        <v>0.17702451348304749</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.10174226015806198</v>
+        <v>0.029517823830246925</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2.751946210861206</v>
+        <v>2.747936487197876</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.2055131196975708</v>
+        <v>0.0</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.615182399749756</v>
+        <v>2.6334784030914307</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.6365649700164795</v>
+        <v>2.7378158569335938</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>4.192200183868408</v>
+        <v>4.421700477600098</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>45.367855072021484</v>
+        <v>41.80613708496094</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>-52.1903076171875</v>
+        <v>-63.73536682128906</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1016.803955078125</v>
+        <v>1012.0706787109375</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>12.5</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>12.699999809265137</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>7.300000190734863</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>7.5</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>23.799999237060547</v>
+        <v>22.800804138183594</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>19.13901138305664</v>
+        <v>24.406007766723633</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2023-07-10 00:44:00</t>
+          <t>2023-07-08 23:44:00</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.0343131497502327</v>
+        <v>0.19783234596252441</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.1077609658241272</v>
+        <v>0.032527174800634384</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2.4728074073791504</v>
+        <v>2.7749691009521484</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.20713503658771515</v>
+        <v>0.0</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.3636529445648193</v>
+        <v>2.6537935733795166</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.373095989227295</v>
+        <v>2.775644063949585</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>2.7795000076293945</v>
+        <v>4.406400203704834</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>45.607810974121094</v>
+        <v>42.00345993041992</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>-51.2066650390625</v>
+        <v>-63.30241012573242</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1017.2787475585938</v>
+        <v>1012.232421875</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>12.40000057220459</v>
+        <v>12.300000190734863</v>
       </c>
       <c r="O27" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P27" s="2" t="n">
         <v>7.599999904632568</v>
       </c>
-      <c r="P27" s="2" t="n">
-        <v>0.10000000149011612</v>
-      </c>
       <c r="Q27" s="2" t="n">
-        <v>22.80080223083496</v>
+        <v>22.55014991760254</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>16.057403564453125</v>
+        <v>24.46062469482422</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2023-07-10 02:44:00</t>
+          <t>2023-07-09 00:44:00</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.07700324058532715</v>
+        <v>0.03665969893336296</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.11377967149019241</v>
+        <v>0.03553652763366699</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2.7561566829681396</v>
+        <v>2.7527358531951904</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.20313803851604462</v>
+        <v>0.0</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.626509666442871</v>
+        <v>2.629387617111206</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.638493299484253</v>
+        <v>2.723334550857544</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>4.0646796226501465</v>
+        <v>4.396200180053711</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>45.83317184448242</v>
+        <v>42.176334381103516</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>-50.27620315551758</v>
+        <v>-62.83885192871094</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1017.7534790039062</v>
+        <v>1012.4281005859375</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>12.0</v>
+        <v>12.300000190734863</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>12.300000190734863</v>
+        <v>12.40000057220459</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>7.200000286102295</v>
+        <v>7.5</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>7.700000286102295</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>22.900150299072266</v>
+        <v>23.25742530822754</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>15.238658905029297</v>
+        <v>24.395532608032227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2023-07-10 04:44:00</t>
+          <t>2023-07-09 01:44:00</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.119693323969841</v>
+        <v>0.09333964437246323</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.11979836970567703</v>
+        <v>0.0385458804666996</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2.7484471797943115</v>
+        <v>2.7229702472686768</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.20017416775226593</v>
+        <v>0.0</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.6241495609283447</v>
+        <v>2.633181571960449</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.6262972354888916</v>
+        <v>2.7115654945373535</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>3.529200553894043</v>
+        <v>4.2534003257751465</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>46.05388259887695</v>
+        <v>42.333641052246094</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>-49.28018569946289</v>
+        <v>-62.35520935058594</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1018.228271484375</v>
+        <v>1012.623779296875</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>9.5</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.0</v>
+        <v>7.5</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>22.55022621154785</v>
+        <v>22.960079193115234</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>14.77120590209961</v>
+        <v>24.13157844543457</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2023-07-10 06:44:00</t>
+          <t>2023-07-09 02:44:00</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.16238342225551605</v>
+        <v>0.1500195860862732</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.12581707537174225</v>
+        <v>0.04155522957444191</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>2.7658369541168213</v>
+        <v>2.7350573539733887</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.641615152359009</v>
+        <v>2.652327060699463</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.6608989238739014</v>
+        <v>2.733917474746704</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>3.4782004356384277</v>
+        <v>4.130999565124512</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>46.29456329345703</v>
+        <v>42.48966598510742</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>-48.276546478271484</v>
+        <v>-61.88401794433594</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1018.7030029296875</v>
+        <v>1012.8194580078125</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>9.5</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.200000286102295</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.5</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>22.200000762939453</v>
+        <v>22.999834060668945</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>15.758173942565918</v>
+        <v>23.318958282470703</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2023-07-10 08:44:00</t>
+          <t>2023-07-09 03:44:00</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.0012115126010030508</v>
+        <v>0.3102421760559082</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.13183577358722687</v>
+        <v>0.04456458240747452</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>2.758112668991089</v>
+        <v>2.7635855674743652</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.6114892959594727</v>
+        <v>2.65388560295105</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.6567816734313965</v>
+        <v>2.7432057857513428</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>3.707700252532959</v>
+        <v>4.197299957275391</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>46.55086135864258</v>
+        <v>42.64415740966797</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>-47.29732894897461</v>
+        <v>-61.41520309448242</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1019.1777954101562</v>
+        <v>1013.01513671875</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>12.40000057220459</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>12.5</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>7.5</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>7.5</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>22.860088348388672</v>
+        <v>22.80060577392578</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>15.762714385986328</v>
+        <v>22.725250244140625</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>2023-07-10 10:44:00</t>
+          <t>2023-07-09 04:44:00</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.06373517215251923</v>
+        <v>0.004298901651054621</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.13785448670387268</v>
+        <v>0.047573935240507126</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>2.7792744636535645</v>
+        <v>2.728217363357544</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.6568353176116943</v>
+        <v>2.641007900238037</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.662081003189087</v>
+        <v>2.7216970920562744</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>3.5751001834869385</v>
+        <v>4.120800495147705</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>46.77735137939453</v>
+        <v>42.79712677001953</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>-46.292545318603516</v>
+        <v>-60.95362854003906</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1019.652587890625</v>
+        <v>1013.2108154296875</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>9.5</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>12.40000057220459</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>9.0</v>
+        <v>7.5</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>23.099464416503906</v>
+        <v>23.200000762939453</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>17.55534553527832</v>
+        <v>23.342994689941406</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>2023-07-10 12:44:00</t>
+          <t>2023-07-09 05:44:00</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.12625883519649506</v>
+        <v>0.012232230044901371</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.1438731849193573</v>
+        <v>0.050583284348249435</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2.7170512676239014</v>
+        <v>2.7372207641601562</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.5837767124176025</v>
+        <v>2.6407346725463867</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.6038451194763184</v>
+        <v>2.723769187927246</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>3.7434003353118896</v>
+        <v>4.120800495147705</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>47.06586837768555</v>
+        <v>42.941917419433594</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>-45.30370330810547</v>
+        <v>-60.4888916015625</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1020.23876953125</v>
+        <v>1013.406494140625</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>9.90000057220459</v>
+        <v>12.300000190734863</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>9.5</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>22.599395751953125</v>
+        <v>23.199800491333008</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>19.567710876464844</v>
+        <v>23.962352752685547</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>2023-07-10 14:44:00</t>
+          <t>2023-07-09 06:44:00</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>3.2261197338812053E-4</v>
+        <v>0.02016555704176426</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.14989188313484192</v>
+        <v>0.05359263718128204</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>2.768566131591797</v>
+        <v>2.749476909637451</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.629521369934082</v>
+        <v>2.653792142868042</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.661515235900879</v>
+        <v>2.7365012168884277</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>3.8607006072998047</v>
+        <v>4.182000160217285</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>47.32289123535156</v>
+        <v>43.08897399902344</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>-44.298885345458984</v>
+        <v>-60.0113525390625</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1021.129150390625</v>
+        <v>1013.6021728515625</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>7.5</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>22.999849319458008</v>
+        <v>23.299999237060547</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>19.423002243041992</v>
+        <v>22.8758487701416</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2023-07-10 16:44:00</t>
+          <t>2023-07-09 07:44:00</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.005045545287430286</v>
+        <v>0.028098884969949722</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.15591059625148773</v>
+        <v>0.05660199001431465</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>2.745148181915283</v>
+        <v>2.7514922618865967</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.624635696411133</v>
+        <v>2.640871286392212</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.6340413093566895</v>
+        <v>2.7318546772003174</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>3.7434003353118896</v>
+        <v>4.1259002685546875</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>47.56285095214844</v>
+        <v>43.235008239746094</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>-43.272884368896484</v>
+        <v>-59.5206298828125</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1022.01953125</v>
+        <v>1013.7978515625</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>12.0</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.5</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>23.200000762939453</v>
+        <v>22.70050048828125</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>19.600000381469727</v>
+        <v>21.883085250854492</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2023-07-10 18:44:00</t>
+          <t>2023-07-09 08:44:00</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.009768478572368622</v>
+        <v>0.036032214760780334</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.16192929446697235</v>
+        <v>0.05961133912205696</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>2.7584664821624756</v>
+        <v>2.73761248588562</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.6333324909210205</v>
+        <v>2.6394755840301514</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.6533567905426025</v>
+        <v>2.749081611633301</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>3.6770999431610107</v>
+        <v>2.7692999839782715</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>47.80720901489258</v>
+        <v>43.37088394165039</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>-42.234439849853516</v>
+        <v>-59.052467346191406</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1022.9098510742188</v>
+        <v>1013.9935302734375</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.0</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>22.651004791259766</v>
+        <v>22.000080108642578</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>19.969057083129883</v>
+        <v>22.232505798339844</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>2023-07-10 20:44:00</t>
+          <t>2023-07-09 09:44:00</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.014491411857306957</v>
+        <v>0.04396554082632065</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.16794799268245697</v>
+        <v>0.06262069195508957</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>2.755164861679077</v>
+        <v>2.408010244369507</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.6262314319610596</v>
+        <v>2.25236177444458</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.6552493572235107</v>
+        <v>2.3384957313537598</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>3.6312003135681152</v>
+        <v>4.554300308227539</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>48.015968322753906</v>
+        <v>43.51559066772461</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>-41.18407440185547</v>
+        <v>-58.58185958862305</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1023.8002319335938</v>
+        <v>1014.189208984375</v>
       </c>
       <c r="M37" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N37" s="2" t="n">
         <v>9.5</v>
       </c>
-      <c r="N37" s="2" t="n">
-        <v>9.600000381469727</v>
-      </c>
       <c r="O37" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.0</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>22.000402450561523</v>
+        <v>23.4555721282959</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>19.93688201904297</v>
+        <v>21.876941680908203</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>2023-07-10 22:44:00</t>
+          <t>2023-07-09 10:44:00</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.019214345142245293</v>
+        <v>0.05189887061715126</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.17396670579910278</v>
+        <v>0.06563004106283188</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2.7389256954193115</v>
+        <v>2.7664732933044434</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.6084039211273193</v>
+        <v>2.6010730266571045</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.6359758377075195</v>
+        <v>0.0</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>3.8505001068115234</v>
+        <v>4.401299953460693</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>48.23259353637695</v>
+        <v>43.65377426147461</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>-40.11972427368164</v>
+        <v>-58.11092758178711</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1024.6905517578125</v>
+        <v>1014.3848876953125</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>7.0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>22.598796844482422</v>
+        <v>21.53275489807129</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>19.754043579101562</v>
+        <v>21.419496536254883</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>2023-07-11 00:44:00</t>
+          <t>2023-07-09 11:44:00</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.019458573311567307</v>
+        <v>0.059832196682691574</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.1799854040145874</v>
+        <v>0.06863939762115479</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>2.7409090995788574</v>
+        <v>2.762939214706421</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.6165647506713867</v>
+        <v>2.6248295307159424</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.644632577896118</v>
+        <v>0.0</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>3.5343003273010254</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>48.43699645996094</v>
+        <v>43.80357360839844</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>-39.01764678955078</v>
+        <v>-57.673030853271484</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1025.35205078125</v>
+        <v>1014.58056640625</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>9.5</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.0</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>22.29974937438965</v>
+        <v>21.59966468811035</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>19.322101593017578</v>
+        <v>21.14220428466797</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>2023-07-11 02:44:00</t>
+          <t>2023-07-09 12:44:00</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.059299834072589874</v>
+        <v>0.06776552647352219</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.18600410223007202</v>
+        <v>0.0716487467288971</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2.7646942138671875</v>
+        <v>2.5208420753479004</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.6417994499206543</v>
+        <v>2.384749412536621</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.663668394088745</v>
+        <v>2.4143052101135254</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>3.304800510406494</v>
+        <v>2.7183001041412354</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>48.63611602783203</v>
+        <v>43.94295120239258</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>-37.93762969970703</v>
+        <v>-57.233985900878906</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1025.1160888671875</v>
+        <v>1014.7762451171875</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.0</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>9.0</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>22.375093460083008</v>
+        <v>21.228498458862305</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>19.10841941833496</v>
+        <v>21.495391845703125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2023-07-11 04:44:00</t>
+          <t>2023-07-09 13:44:00</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.09914109110832214</v>
+        <v>0.003837711876258254</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.19202281534671783</v>
+        <v>0.0746580958366394</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>2.7435760498046875</v>
+        <v>2.773099184036255</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.6298625469207764</v>
+        <v>2.643005847930908</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.6637139320373535</v>
+        <v>2.6676926612854004</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>3.248699903488159</v>
+        <v>4.32480001449585</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>48.80766677856445</v>
+        <v>44.100887298583984</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>-36.853782653808594</v>
+        <v>-56.76405334472656</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1024.8802490234375</v>
+        <v>1014.971923828125</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>9.0</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>23.100101470947266</v>
+        <v>23.480443954467773</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>18.587221145629883</v>
+        <v>20.531850814819336</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2023-07-11 06:44:00</t>
+          <t>2023-07-09 14:44:00</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.138982355594635</v>
+        <v>0.02541401796042919</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.19804151356220245</v>
+        <v>0.07766745239496231</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>2.7356507778167725</v>
+        <v>2.7807562351226807</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.6287693977355957</v>
+        <v>2.6289825439453125</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.6279051303863525</v>
+        <v>2.6334495544433594</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>3.304800510406494</v>
+        <v>4.248300552368164</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>48.989280700683594</v>
+        <v>44.248104095458984</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>-35.747642517089844</v>
+        <v>-56.26685333251953</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1024.644287109375</v>
+        <v>1015.1676025390625</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>9.0</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>7.5</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>22.166465759277344</v>
+        <v>24.140216827392578</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>17.850740432739258</v>
+        <v>20.9477481842041</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2023-07-11 08:44:00</t>
+          <t>2023-07-09 15:44:00</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.17882362008094788</v>
+        <v>0.046990323811769485</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.20406021177768707</v>
+        <v>0.08067680150270462</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>2.721489191055298</v>
+        <v>2.7714169025421143</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.599801540374756</v>
+        <v>2.63706374168396</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.6145520210266113</v>
+        <v>2.6439268589019775</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>3.4374001026153564</v>
+        <v>4.207499980926514</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>49.15413284301758</v>
+        <v>44.3929443359375</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>-34.63467788696289</v>
+        <v>-55.759986877441406</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1024.4083251953125</v>
+        <v>1015.36328125</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>9.5</v>
+        <v>12.0</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>9.5</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>9.0</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>21.20067024230957</v>
+        <v>23.600404739379883</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>18.12720489501953</v>
+        <v>21.05715560913086</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2023-07-11 10:44:00</t>
+          <t>2023-07-09 16:44:00</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.0071870009414851665</v>
+        <v>0.06856662780046463</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.21007892489433289</v>
+        <v>0.08368615061044693</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>2.758934259414673</v>
+        <v>2.7741546630859375</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>2.6451759338378906</v>
+        <v>2.6478683948516846</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2.654221534729004</v>
+        <v>2.655395269393921</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>3.4680001735687256</v>
+        <v>4.2534003257751465</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>49.30904006958008</v>
+        <v>44.534122467041016</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>-33.50810623168945</v>
+        <v>-55.25614547729492</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>1024.17236328125</v>
+        <v>1015.5589599609375</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>22.799999237060547</v>
+        <v>23.322265625</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>18.799999237060547</v>
+        <v>20.952646255493164</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2023-07-11 12:44:00</t>
+          <t>2023-07-09 17:44:00</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.040738508105278015</v>
+        <v>0.09014293551445007</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.2160976231098175</v>
+        <v>0.08669550716876984</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>2.747042179107666</v>
+        <v>2.755864381790161</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>2.6201093196868896</v>
+        <v>2.6297645568847656</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>2.63334059715271</v>
+        <v>2.63151216506958</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>3.3762001991271973</v>
+        <v>4.074899673461914</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>49.45112228393555</v>
+        <v>44.6796875</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>-32.39282989501953</v>
+        <v>-54.75593185424805</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>1023.9364013671875</v>
+        <v>1015.754638671875</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>11.90000057220459</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>12.0</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>7.200000286102295</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>22.97496795654297</v>
+        <v>24.260059356689453</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>18.95077133178711</v>
+        <v>20.976417541503906</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2023-07-11 14:44:00</t>
+          <t>2023-07-09 18:44:00</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.07429001480340958</v>
+        <v>0.11171924322843552</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.22211632132530212</v>
+        <v>0.08970485627651215</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>2.7373998165130615</v>
+        <v>2.7610177993774414</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>2.621973752975464</v>
+        <v>2.6379315853118896</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>2.6301636695861816</v>
+        <v>2.6191794872283936</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>3.3201000690460205</v>
+        <v>4.17180061340332</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>49.57889938354492</v>
+        <v>44.818546295166016</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>-31.271345138549805</v>
+        <v>-54.24390411376953</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>1023.7005004882812</v>
+        <v>1015.9503173828125</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>12.0</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>22.299833297729492</v>
+        <v>23.266799926757812</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>18.411447525024414</v>
+        <v>20.60809898376465</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2023-07-11 16:44:00</t>
+          <t>2023-07-09 19:44:00</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.10784152150154114</v>
+        <v>0.13329555094242096</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.22813503444194794</v>
+        <v>0.09271420538425446</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>2.7513420581817627</v>
+        <v>2.7540955543518066</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>2.6410036087036133</v>
+        <v>2.6171910762786865</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>2.6476969718933105</v>
+        <v>2.618332624435425</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>3.304800510406494</v>
+        <v>4.268700122833252</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>49.7008056640625</v>
+        <v>44.95948028564453</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>-30.12030029296875</v>
+        <v>-53.73497772216797</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>1023.1644287109375</v>
+        <v>1016.14599609375</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>7.5</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>22.699600219726562</v>
+        <v>24.100200653076172</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>19.564870834350586</v>
+        <v>19.509489059448242</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2023-07-11 18:44:00</t>
+          <t>2023-07-09 20:44:00</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.1413930207490921</v>
+        <v>0.1548718512058258</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.23415373265743256</v>
+        <v>0.09572356194257736</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>2.7620720863342285</v>
+        <v>2.7627317905426025</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>0.0</v>
+        <v>0.20262502133846283</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>2.6365833282470703</v>
+        <v>2.6415300369262695</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>2.6484668254852295</v>
+        <v>2.663830280303955</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>3.335400342941284</v>
+        <v>4.141200065612793</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>49.81771469116211</v>
+        <v>45.09278106689453</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>-28.930877685546875</v>
+        <v>-53.21882247924805</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>1022.4057006835938</v>
+        <v>1016.3416748046875</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>12.0</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>11.800000190734863</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>7.200000286102295</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>7.5</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>22.499849319458008</v>
+        <v>24.19969940185547</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>18.38306999206543</v>
+        <v>19.398515701293945</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2023-07-11 20:44:00</t>
+          <t>2023-07-09 21:44:00</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.17494453489780426</v>
+        <v>0.17644815146923065</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.24017243087291718</v>
+        <v>0.09873291105031967</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>2.742739677429199</v>
+        <v>2.761082887649536</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>0.0</v>
+        <v>0.2079821676015854</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>2.6270275115966797</v>
+        <v>2.6221439838409424</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>2.6303279399871826</v>
+        <v>2.6324939727783203</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>3.2895002365112305</v>
+        <v>4.141200065612793</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>49.910865783691406</v>
+        <v>45.23414611816406</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>-27.765466690063477</v>
+        <v>-52.70792007446289</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>1021.6469116210938</v>
+        <v>1016.5665893554688</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>12.0</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>7.200000286102295</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>7.5</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>22.333276748657227</v>
+        <v>24.299999237060547</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>20.855667114257812</v>
+        <v>18.349262237548828</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2023-07-11 22:44:00</t>
+          <t>2023-07-09 22:44:00</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.008645412512123585</v>
+        <v>0.1980244666337967</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.246191143989563</v>
+        <v>0.10174226015806198</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>2.7757301330566406</v>
+        <v>2.751946210861206</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>0.0</v>
+        <v>0.2055131196975708</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>2.623058557510376</v>
+        <v>2.615182399749756</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>2.610069751739502</v>
+        <v>2.6365649700164795</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>3.218100070953369</v>
+        <v>4.192200183868408</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>49.99532699584961</v>
+        <v>45.367855072021484</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>-26.611942291259766</v>
+        <v>-52.1903076171875</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>1020.88818359375</v>
+        <v>1016.803955078125</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>7.5</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>22.72010040283203</v>
+        <v>23.799999237060547</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>19.679298400878906</v>
+        <v>19.13901138305664</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2023-07-12 00:44:00</t>
+          <t>2023-07-09 23:44:00</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.07189126312732697</v>
+        <v>0.012968105264008045</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.2522098422050476</v>
+        <v>0.10475161671638489</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>2.755894184112549</v>
+        <v>2.7501368522644043</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>0.0</v>
+        <v>0.20864024758338928</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>2.6180872917175293</v>
+        <v>2.632844924926758</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>2.6255109310150146</v>
+        <v>2.644740104675293</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>3.1518001556396484</v>
+        <v>4.115700721740723</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>50.0709228515625</v>
+        <v>45.493953704833984</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>-25.439306259155273</v>
+        <v>-51.67109298706055</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>1020.12939453125</v>
+        <v>1017.0413818359375</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>12.300000190734863</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>7.5</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>23.600168228149414</v>
+        <v>23.33324432373047</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>18.600000381469727</v>
+        <v>18.043020248413086</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>2023-07-12 02:44:00</t>
+          <t>2023-07-10 00:44:00</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.13513711094856262</v>
+        <v>0.0343131497502327</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.2582285404205322</v>
+        <v>0.1077609658241272</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>2.782015562057495</v>
+        <v>2.4728074073791504</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>0.0</v>
+        <v>0.20713503658771515</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>2.6206135749816895</v>
+        <v>2.3636529445648193</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>2.621411085128784</v>
+        <v>2.373095989227295</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>3.009000301361084</v>
+        <v>2.7795000076293945</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>50.13676071166992</v>
+        <v>45.607810974121094</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>-24.266260147094727</v>
+        <v>-51.2066650390625</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>1019.3706665039062</v>
+        <v>1017.2787475585938</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>12.40000057220459</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>22.59979820251465</v>
+        <v>22.80080223083496</v>
       </c>
       <c r="R52" s="2" t="n">
-        <v>18.06228256225586</v>
+        <v>16.057403564453125</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>2023-07-12 04:44:00</t>
+          <t>2023-07-10 01:44:00</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.19838295876979828</v>
+        <v>0.05565819516777992</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.26424723863601685</v>
+        <v>0.1107703149318695</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>2.781778335571289</v>
+        <v>0.9938277006149292</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>0.0</v>
+        <v>0.22388891875743866</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>2.6406612396240234</v>
+        <v>0.8198182582855225</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>2.661315441131592</v>
+        <v>0.8831257224082947</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>3.0752999782562256</v>
+        <v>2.351100206375122</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>50.185115814208984</v>
+        <v>45.71803283691406</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>-23.072452545166016</v>
+        <v>-50.75471115112305</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>1018.6118774414062</v>
+        <v>1017.51611328125</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>9.0</v>
+        <v>1.8000000715255737</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>1.8000000715255737</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>1.8000000715255737</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>0.0</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>23.200000762939453</v>
+        <v>14.699999809265137</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>19.161203384399414</v>
+        <v>15.199999809265137</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>2023-07-12 06:44:00</t>
+          <t>2023-07-10 02:44:00</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.007517896592617035</v>
+        <v>0.07700324058532715</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.27026593685150146</v>
+        <v>0.11377967149019241</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>2.762739419937134</v>
+        <v>2.7561566829681396</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>0.0</v>
+        <v>0.20313803851604462</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>2.625488519668579</v>
+        <v>2.626509666442871</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>2.6238462924957275</v>
+        <v>2.638493299484253</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>3.1314001083374023</v>
+        <v>4.0646796226501465</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>50.228004455566406</v>
+        <v>45.83317184448242</v>
       </c>
       <c r="K54" s="2" t="n">
-        <v>-21.86377716064453</v>
+        <v>-50.27620315551758</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>1017.8531494140625</v>
+        <v>1017.7534790039062</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>12.300000190734863</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>7.200000286102295</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>23.499393463134766</v>
+        <v>22.900150299072266</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>18.928386688232422</v>
+        <v>15.238658905029297</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>2023-07-12 08:44:00</t>
+          <t>2023-07-10 03:44:00</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.05168331041932106</v>
+        <v>0.09834828227758408</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.27628466486930847</v>
+        <v>0.11678902059793472</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2.7744107246398926</v>
+        <v>2.8130390644073486</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>0.0</v>
+        <v>0.20725668966770172</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>2.6295175552368164</v>
+        <v>2.6669442653656006</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>2.6357502937316895</v>
+        <v>2.780604362487793</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>3.218100070953369</v>
+        <v>3.952500104904175</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>50.251773834228516</v>
+        <v>45.945369720458984</v>
       </c>
       <c r="K55" s="2" t="n">
-        <v>-20.657649993896484</v>
+        <v>-49.773048400878906</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>1017.4801025390625</v>
+        <v>1017.9909057617188</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>11.600000381469727</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>11.600000381469727</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>23.80120086669922</v>
+        <v>23.679931640625</v>
       </c>
       <c r="R55" s="2" t="n">
-        <v>18.429481506347656</v>
+        <v>15.476868629455566</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2023-07-12 10:44:00</t>
+          <t>2023-07-10 04:44:00</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.09584872424602509</v>
+        <v>0.119693323969841</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.2823033630847931</v>
+        <v>0.11979836970567703</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>2.796182870864868</v>
+        <v>2.7484471797943115</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>0.0</v>
+        <v>0.20017416775226593</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>2.645750045776367</v>
+        <v>2.6241495609283447</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>2.6580538749694824</v>
+        <v>2.6262972354888916</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>3.345599889755249</v>
+        <v>3.529200553894043</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>50.27025604248047</v>
+        <v>46.05388259887695</v>
       </c>
       <c r="K56" s="2" t="n">
-        <v>-19.461610794067383</v>
+        <v>-49.28018569946289</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>1017.4429321289062</v>
+        <v>1018.228271484375</v>
       </c>
       <c r="M56" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N56" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O56" s="2" t="n">
         <v>9.199999809265137</v>
       </c>
-      <c r="N56" s="2" t="n">
-        <v>9.199999809265137</v>
-      </c>
-      <c r="O56" s="2" t="n">
-        <v>8.699999809265137</v>
-      </c>
       <c r="P56" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>9.0</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>23.799999237060547</v>
+        <v>22.55022621154785</v>
       </c>
       <c r="R56" s="2" t="n">
-        <v>19.121200561523438</v>
+        <v>14.77120590209961</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>2023-07-12 12:44:00</t>
+          <t>2023-07-10 05:44:00</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.14001412689685822</v>
+        <v>0.14103837311267853</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.2883220613002777</v>
+        <v>0.12280772626399994</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>2.7830491065979004</v>
+        <v>2.7722508907318115</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>2.635787010192871</v>
+        <v>2.649324655532837</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>2.64540433883667</v>
+        <v>2.6159164905548096</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>3.2690999507904053</v>
+        <v>3.462900400161743</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>50.27210998535156</v>
+        <v>46.16703414916992</v>
       </c>
       <c r="K57" s="2" t="n">
-        <v>-18.272119522094727</v>
+        <v>-48.77335739135742</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>1017.40576171875</v>
+        <v>1018.4656372070312</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>9.0</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>23.20050048828125</v>
+        <v>22.950302124023438</v>
       </c>
       <c r="R57" s="2" t="n">
-        <v>20.792743682861328</v>
+        <v>14.712188720703125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>2023-07-12 14:44:00</t>
+          <t>2023-07-10 06:44:00</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.18417954444885254</v>
+        <v>0.16238342225551605</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.29434075951576233</v>
+        <v>0.12581707537174225</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>2.762317419052124</v>
+        <v>2.7658369541168213</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>2.638835906982422</v>
+        <v>2.641615152359009</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>2.6452889442443848</v>
+        <v>2.6608989238739014</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>3.248699903488159</v>
+        <v>3.4782004356384277</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>50.26953887939453</v>
+        <v>46.29456329345703</v>
       </c>
       <c r="K58" s="2" t="n">
-        <v>-17.089954376220703</v>
+        <v>-48.276546478271484</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>1017.3685913085938</v>
+        <v>1018.7030029296875</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N58" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.5</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P58" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>23.600133895874023</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="R58" s="2" t="n">
-        <v>19.67345428466797</v>
+        <v>15.758173942565918</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>2023-07-12 16:44:00</t>
+          <t>2023-07-10 07:44:00</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.03750799968838692</v>
+        <v>0.18372845649719238</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.30035945773124695</v>
+        <v>0.12882642447948456</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>2.7804477214813232</v>
+        <v>2.7541563510894775</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>2.6382579803466797</v>
+        <v>2.6215872764587402</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>2.6395058631896973</v>
+        <v>2.608480930328369</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>3.2385001182556152</v>
+        <v>3.6618001461029053</v>
       </c>
       <c r="I59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>50.23670959472656</v>
+        <v>46.4241943359375</v>
       </c>
       <c r="K59" s="2" t="n">
-        <v>-15.900289535522461</v>
+        <v>-47.78304672241211</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>1017.3313598632812</v>
+        <v>1018.9404296875</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>22.801496505737305</v>
+        <v>23.399700164794922</v>
       </c>
       <c r="R59" s="2" t="n">
-        <v>20.22641944885254</v>
+        <v>15.869874954223633</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>2023-07-12 18:44:00</t>
+          <t>2023-07-10 08:44:00</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.04432294890284538</v>
+        <v>0.0012115126010030508</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.78239905834198</v>
+        <v>0.13183577358722687</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>2.635528564453125</v>
+        <v>2.758112668991089</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>2.5227301120758057</v>
+        <v>2.6114892959594727</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>2.5347797870635986</v>
+        <v>2.6567816734313965</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>0.0</v>
+        <v>3.707700252532959</v>
       </c>
       <c r="I60" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>50.20832443237305</v>
+        <v>46.55086135864258</v>
       </c>
       <c r="K60" s="2" t="n">
-        <v>-14.853355407714844</v>
+        <v>-47.29732894897461</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>1017.294189453125</v>
+        <v>1019.1777954101562</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>6.0</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>6.0</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>20.70060157775879</v>
+        <v>22.860088348388672</v>
       </c>
       <c r="R60" s="2" t="n">
-        <v>19.77608299255371</v>
+        <v>15.762714385986328</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>2023-07-12 20:44:00</t>
+          <t>2023-07-10 09:44:00</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.11346261203289032</v>
+        <v>0.03247334063053131</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.8292638659477234</v>
+        <v>0.13484512269496918</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>2.6170778274536133</v>
+        <v>2.7784061431884766</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>2.511145830154419</v>
+        <v>2.6351091861724854</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>2.512105703353882</v>
+        <v>2.629315137863159</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>0.0</v>
+        <v>3.4986002445220947</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>50.168357849121094</v>
+        <v>46.68186950683594</v>
       </c>
       <c r="K61" s="2" t="n">
-        <v>-13.79701042175293</v>
+        <v>-46.81173324584961</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>1017.2570190429688</v>
+        <v>1019.4151611328125</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>6.0</v>
+        <v>9.5</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P61" s="2" t="n">
-        <v>6.0</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>21.24002456665039</v>
+        <v>22.62005615234375</v>
       </c>
       <c r="R61" s="2" t="n">
-        <v>19.346513748168945</v>
+        <v>16.81710433959961</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>2023-07-12 22:44:00</t>
+          <t>2023-07-10 10:44:00</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>0.18260228633880615</v>
+        <v>0.06373517215251923</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.8860656023025513</v>
+        <v>0.13785448670387268</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>2.4008212089538574</v>
+        <v>2.7792744636535645</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6568353176116943</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>2.294605255126953</v>
+        <v>2.662081003189087</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>0.0</v>
+        <v>3.5751001834869385</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>50.12828063964844</v>
+        <v>46.77735137939453</v>
       </c>
       <c r="K62" s="2" t="n">
-        <v>-12.952742576599121</v>
+        <v>-46.292545318603516</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>1017.2197875976562</v>
+        <v>1019.652587890625</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>2.799999952316284</v>
+        <v>9.5</v>
       </c>
       <c r="N62" s="2" t="n">
-        <v>2.9000000953674316</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>2.700000047683716</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>2.799999952316284</v>
+        <v>9.0</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>16.285648345947266</v>
+        <v>23.099464416503906</v>
       </c>
       <c r="R62" s="2" t="n">
-        <v>18.788000106811523</v>
+        <v>17.55534553527832</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>2023-07-13 00:44:00</t>
+          <t>2023-07-10 11:44:00</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.0987924337387085</v>
+        <v>0.09499699622392654</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.728734016418457</v>
+        <v>0.140863835811615</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>2.7196686267852783</v>
+        <v>2.7581429481506348</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>2.5885918140411377</v>
+        <v>2.628638744354248</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>2.6094295978546143</v>
+        <v>2.63555908203125</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>0.0</v>
+        <v>3.728100061416626</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>50.0821533203125</v>
+        <v>46.92993927001953</v>
       </c>
       <c r="K63" s="2" t="n">
-        <v>-12.081513404846191</v>
+        <v>-45.80101013183594</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>1017.2316284179688</v>
+        <v>1019.8899536132812</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>6.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P63" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>21.333276748657227</v>
+        <v>22.699798583984375</v>
       </c>
       <c r="R63" s="2" t="n">
-        <v>19.131885528564453</v>
+        <v>18.46685791015625</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>2023-07-13 02:44:00</t>
+          <t>2023-07-10 12:44:00</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>0.019398700445890427</v>
+        <v>0.12625883519649506</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.800289511680603</v>
+        <v>0.1438731849193573</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>2.7083194255828857</v>
+        <v>2.7170512676239014</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>2.5632317066192627</v>
+        <v>2.5837767124176025</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>2.562680959701538</v>
+        <v>2.6038451194763184</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>0.0</v>
+        <v>3.7434003353118896</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>50.01869201660156</v>
+        <v>47.06586837768555</v>
       </c>
       <c r="K64" s="2" t="n">
-        <v>-11.003158569335938</v>
+        <v>-45.30370330810547</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>1017.2989501953125</v>
+        <v>1020.23876953125</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>6.5</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>9.5</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.5</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>20.799999237060547</v>
+        <v>22.599395751953125</v>
       </c>
       <c r="R64" s="2" t="n">
-        <v>19.728147506713867</v>
+        <v>19.567710876464844</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>2023-07-13 04:44:00</t>
+          <t>2023-07-10 13:44:00</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>0.07217372953891754</v>
+        <v>0.15752065181732178</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.6810021996498108</v>
+        <v>0.1468825340270996</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>2.6752312183380127</v>
+        <v>2.76640248298645</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>2.5398285388946533</v>
+        <v>2.63893985748291</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>2.580925464630127</v>
+        <v>2.6614696979522705</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>0.0</v>
+        <v>3.983099937438965</v>
       </c>
       <c r="I65" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>49.940574645996094</v>
+        <v>47.201107025146484</v>
       </c>
       <c r="K65" s="2" t="n">
-        <v>-9.93787956237793</v>
+        <v>-44.801124572753906</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>1017.3662719726562</v>
+        <v>1020.6839599609375</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>20.566543579101562</v>
+        <v>23.10015106201172</v>
       </c>
       <c r="R65" s="2" t="n">
-        <v>19.801546096801758</v>
+        <v>19.68456268310547</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>2023-07-13 06:44:00</t>
+          <t>2023-07-10 14:44:00</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>0.12494875490665436</v>
+        <v>3.2261197338812053E-4</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.8553532361984253</v>
+        <v>0.14989188313484192</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>2.7170569896698</v>
+        <v>2.768566131591797</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>2.576282262802124</v>
+        <v>2.629521369934082</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>2.621994733810425</v>
+        <v>2.661515235900879</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>0.0</v>
+        <v>3.8607006072998047</v>
       </c>
       <c r="I66" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>49.85543441772461</v>
+        <v>47.32289123535156</v>
       </c>
       <c r="K66" s="2" t="n">
-        <v>-8.879671096801758</v>
+        <v>-44.298885345458984</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>1017.43359375</v>
+        <v>1021.129150390625</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>6.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>20.3002986907959</v>
+        <v>22.999849319458008</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>20.059011459350586</v>
+        <v>19.423002243041992</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>2023-07-13 08:44:00</t>
+          <t>2023-07-10 15:44:00</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>0.17772378027439117</v>
+        <v>0.0026840786449611187</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.7686381936073303</v>
+        <v>0.15290123224258423</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>2.7395827770233154</v>
+        <v>2.744352340698242</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>2.6262969970703125</v>
+        <v>2.6209535598754883</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>2.6378018856048584</v>
+        <v>2.647350788116455</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>0.0</v>
+        <v>3.758700370788574</v>
       </c>
       <c r="I67" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>49.75914764404297</v>
+        <v>47.44348907470703</v>
       </c>
       <c r="K67" s="2" t="n">
-        <v>-7.823433876037598</v>
+        <v>-43.78658676147461</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>1017.5009155273438</v>
+        <v>1021.5743408203125</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="N67" s="2" t="n">
-        <v>6.5</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>6.5</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>21.32500648498535</v>
+        <v>22.75075340270996</v>
       </c>
       <c r="R67" s="2" t="n">
-        <v>21.040761947631836</v>
+        <v>19.183631896972656</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>2023-07-13 10:44:00</t>
+          <t>2023-07-10 16:44:00</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>0.022159740328788757</v>
+        <v>0.005045545287430286</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.7936508655548096</v>
+        <v>0.15591059625148773</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>2.7849881649017334</v>
+        <v>2.745148181915283</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>2.658576250076294</v>
+        <v>2.624635696411133</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>2.644503355026245</v>
+        <v>2.6340413093566895</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>0.0</v>
+        <v>3.7434003353118896</v>
       </c>
       <c r="I68" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>49.66179275512695</v>
+        <v>47.56285095214844</v>
       </c>
       <c r="K68" s="2" t="n">
-        <v>-6.842930316925049</v>
+        <v>-43.272884368896484</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>1017.5682373046875</v>
+        <v>1022.01953125</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="N68" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="O68" s="2" t="n">
-        <v>6.5</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P68" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>21.299999237060547</v>
+        <v>23.200000762939453</v>
       </c>
       <c r="R68" s="2" t="n">
-        <v>22.55249786376953</v>
+        <v>19.600000381469727</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>2023-07-13 12:44:00</t>
+          <t>2023-07-10 17:44:00</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>0.08308514207601547</v>
+        <v>0.007407011929899454</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.786300778388977</v>
+        <v>0.15891994535923004</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>2.766805648803711</v>
+        <v>2.7499310970306396</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>2.6631386280059814</v>
+        <v>2.6292178630828857</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>2.6740660667419434</v>
+        <v>2.651235580444336</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>0.0</v>
+        <v>3.600600004196167</v>
       </c>
       <c r="I69" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>49.6585693359375</v>
+        <v>47.680965423583984</v>
       </c>
       <c r="K69" s="2" t="n">
-        <v>-5.765814304351807</v>
+        <v>-42.748924255371094</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>1017.6355590820312</v>
+        <v>1022.4646606445312</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.5</v>
       </c>
       <c r="N69" s="2" t="n">
-        <v>6.5</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O69" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="P69" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>21.77120018005371</v>
+        <v>23.200000762939453</v>
       </c>
       <c r="R69" s="2" t="n">
-        <v>23.15026092529297</v>
+        <v>19.710935592651367</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>2023-07-13 14:44:00</t>
+          <t>2023-07-10 18:44:00</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>0.6454228758811951</v>
+        <v>0.009768478572368622</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.7505078315734863</v>
+        <v>0.16192929446697235</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>2.8157432079315186</v>
+        <v>2.7584664821624756</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>2.6705355644226074</v>
+        <v>2.6333324909210205</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>2.6910512447357178</v>
+        <v>2.6533567905426025</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>0.0</v>
+        <v>3.6770999431610107</v>
       </c>
       <c r="I70" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>49.79396057128906</v>
+        <v>47.80720901489258</v>
       </c>
       <c r="K70" s="2" t="n">
-        <v>-4.69329309463501</v>
+        <v>-42.234439849853516</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>1017.702880859375</v>
+        <v>1022.9098510742188</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N70" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P70" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>21.70013427734375</v>
+        <v>22.651004791259766</v>
       </c>
       <c r="R70" s="2" t="n">
-        <v>22.996118545532227</v>
+        <v>19.969057083129883</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>2023-07-13 16:44:00</t>
+          <t>2023-07-10 19:44:00</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.059412047266960144</v>
+        <v>0.012129944749176502</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.7889613509178162</v>
+        <v>0.16493864357471466</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>2.796712875366211</v>
+        <v>2.779796838760376</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>2.670799732208252</v>
+        <v>2.6411921977996826</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>2.6572165489196777</v>
+        <v>2.675408363342285</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>0.0</v>
+        <v>3.8199002742767334</v>
       </c>
       <c r="I71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>49.98474884033203</v>
+        <v>47.92000961303711</v>
       </c>
       <c r="K71" s="2" t="n">
-        <v>-3.6259448528289795</v>
+        <v>-41.71512222290039</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>1017.7702026367188</v>
+        <v>1023.3550415039062</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>21.09950065612793</v>
+        <v>22.66663360595703</v>
       </c>
       <c r="R71" s="2" t="n">
-        <v>21.1850528717041</v>
+        <v>20.243711471557617</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>2023-07-13 18:44:00</t>
+          <t>2023-07-10 20:44:00</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.12035027891397476</v>
+        <v>0.014491411857306957</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.691243588924408</v>
+        <v>0.16794799268245697</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>2.7705509662628174</v>
+        <v>2.755164861679077</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>2.6480016708374023</v>
+        <v>2.6262314319610596</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>2.6795907020568848</v>
+        <v>2.6552493572235107</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>0.0</v>
+        <v>3.6312003135681152</v>
       </c>
       <c r="I72" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>50.24002456665039</v>
+        <v>48.015968322753906</v>
       </c>
       <c r="K72" s="2" t="n">
-        <v>-2.601983070373535</v>
+        <v>-41.18407440185547</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>1017.44677734375</v>
+        <v>1023.8002319335938</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="N72" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>21.600000381469727</v>
+        <v>22.000402450561523</v>
       </c>
       <c r="R72" s="2" t="n">
-        <v>19.72965431213379</v>
+        <v>19.93688201904297</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>2023-07-13 20:44:00</t>
+          <t>2023-07-10 21:44:00</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.18128851056098938</v>
+        <v>0.016852878034114838</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.865537166595459</v>
+        <v>0.17095734179019928</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>1.5857429504394531</v>
+        <v>2.7518742084503174</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>1.5274300575256348</v>
+        <v>2.6278257369995117</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>1.5479081869125366</v>
+        <v>2.668867588043213</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>0.0</v>
+        <v>3.6465003490448</v>
       </c>
       <c r="I73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>50.364192962646484</v>
+        <v>48.123477935791016</v>
       </c>
       <c r="K73" s="2" t="n">
-        <v>-1.6891406774520874</v>
+        <v>-40.65707778930664</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>1016.8126220703125</v>
+        <v>1024.245361328125</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>2.700000047683716</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N73" s="2" t="n">
-        <v>2.799999952316284</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O73" s="2" t="n">
-        <v>2.700000047683716</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>2.799999952316284</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>15.800000190734863</v>
+        <v>23.040721893310547</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>19.470645904541016</v>
+        <v>19.689716339111328</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>2023-07-13 22:44:00</t>
+          <t>2023-07-10 22:44:00</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.018001079559326172</v>
+        <v>0.019214345142245293</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.7586037516593933</v>
+        <v>0.17396670579910278</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>1.95111083984375</v>
+        <v>2.7389256954193115</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>1.896108865737915</v>
+        <v>2.6084039211273193</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6359758377075195</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>0.0</v>
+        <v>3.8505001068115234</v>
       </c>
       <c r="I74" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>50.50894546508789</v>
+        <v>48.23259353637695</v>
       </c>
       <c r="K74" s="2" t="n">
-        <v>-1.0444108247756958</v>
+        <v>-40.11972427368164</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>1016.1785278320312</v>
+        <v>1024.6905517578125</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>2.0</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N74" s="2" t="n">
-        <v>2.199500560760498</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O74" s="2" t="n">
-        <v>2.0</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P74" s="2" t="n">
-        <v>2.200000047683716</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>13.899999618530273</v>
+        <v>22.598796844482422</v>
       </c>
       <c r="R74" s="2" t="n">
-        <v>19.51667022705078</v>
+        <v>19.754043579101562</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>2023-07-14 00:44:00</t>
+          <t>2023-07-10 23:44:00</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.051323436200618744</v>
+        <v>0.23873208463191986</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.005361275281757116</v>
+        <v>0.1769760549068451</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.9879833459854126</v>
+        <v>2.7437191009521484</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>0.9158287644386292</v>
+        <v>2.6285245418548584</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6463778018951416</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>2.519400119781494</v>
+        <v>3.600600004196167</v>
       </c>
       <c r="I75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>50.76215744018555</v>
+        <v>48.338069915771484</v>
       </c>
       <c r="K75" s="2" t="n">
-        <v>-1.188116431236267</v>
+        <v>-39.573673248291016</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>1015.5443725585938</v>
+        <v>1025.1357421875</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>1.399999976158142</v>
+        <v>9.5</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>1.399999976158142</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>1.3000000715255737</v>
+        <v>9.100500106811523</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>1.100000023841858</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>11.928325653076172</v>
+        <v>23.299999237060547</v>
       </c>
       <c r="R75" s="2" t="n">
-        <v>20.272510528564453</v>
+        <v>19.462444305419922</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>2023-07-14 02:44:00</t>
+          <t>2023-07-11 00:44:00</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>0.08464579284191132</v>
+        <v>0.019458573311567307</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.029954852536320686</v>
+        <v>0.1799854040145874</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.776784360408783</v>
+        <v>2.7409090995788574</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>0.6915342211723328</v>
+        <v>2.6165647506713867</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>0.0</v>
+        <v>2.644632577896118</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>2.121600389480591</v>
+        <v>3.5343003273010254</v>
       </c>
       <c r="I76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>50.90602111816406</v>
+        <v>48.43699645996094</v>
       </c>
       <c r="K76" s="2" t="n">
-        <v>-1.4402735233306885</v>
+        <v>-39.01764678955078</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>1013.951904296875</v>
+        <v>1025.35205078125</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>0.0</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>0.0</v>
+        <v>9.5</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>0.699999988079071</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>0.6000000238418579</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>22.29974937438965</v>
       </c>
       <c r="R76" s="2" t="n">
-        <v>19.11707878112793</v>
+        <v>19.322101593017578</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
+          <t>2023-07-11 01:44:00</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>0.03937920182943344</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>0.1829947531223297</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>2.7411487102508545</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>2.6276376247406006</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>2.653270721435547</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>3.4170000553131104</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>48.53759765625</v>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>-38.47212600708008</v>
+      </c>
+      <c r="L77" s="2" t="n">
+        <v>1025.234130859375</v>
+      </c>
+      <c r="M77" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N77" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O77" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P77" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q77" s="2" t="n">
+        <v>21.399999618530273</v>
+      </c>
+      <c r="R77" s="2" t="n">
+        <v>19.212398529052734</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 02:44:00</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>0.059299834072589874</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>0.18600410223007202</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>2.7646942138671875</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>2.6417994499206543</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>2.663668394088745</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>3.304800510406494</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>48.63611602783203</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>-37.93762969970703</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>1025.1160888671875</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P78" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q78" s="2" t="n">
+        <v>22.375093460083008</v>
+      </c>
+      <c r="R78" s="2" t="n">
+        <v>19.10841941833496</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 03:44:00</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>0.07922046631574631</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>0.18901345133781433</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>2.728771209716797</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>2.609605312347412</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>2.631834030151367</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>3.3507003784179688</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>48.70166015625</v>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>-37.392982482910156</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>1024.9981689453125</v>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P79" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q79" s="2" t="n">
+        <v>22.733243942260742</v>
+      </c>
+      <c r="R79" s="2" t="n">
+        <v>19.05107879638672</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 04:44:00</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>0.09914109110832214</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0.19202281534671783</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>2.7435760498046875</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>2.6298625469207764</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>2.6637139320373535</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>3.248699903488159</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>48.80766677856445</v>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>-36.853782653808594</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>1024.8802490234375</v>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="O80" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P80" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q80" s="2" t="n">
+        <v>23.100101470947266</v>
+      </c>
+      <c r="R80" s="2" t="n">
+        <v>18.587221145629883</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 05:44:00</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>0.11906172335147858</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>0.19503216445446014</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>2.7412357330322266</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>2.623690366744995</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>2.6505930423736572</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>3.2434778213500977</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>48.901611328125</v>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>-36.30280303955078</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>1024.76220703125</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P81" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="Q81" s="2" t="n">
+        <v>23.200101852416992</v>
+      </c>
+      <c r="R81" s="2" t="n">
+        <v>18.171798706054688</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 06:44:00</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>0.138982355594635</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>0.19804151356220245</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>2.7356507778167725</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>2.6287693977355957</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>2.6279051303863525</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>3.304800510406494</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>48.989280700683594</v>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>-35.747642517089844</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>1024.644287109375</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P82" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q82" s="2" t="n">
+        <v>22.166465759277344</v>
+      </c>
+      <c r="R82" s="2" t="n">
+        <v>17.850740432739258</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 07:44:00</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>0.15890298783779144</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>0.20105086266994476</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>2.7662465572357178</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>2.645667791366577</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>2.65049147605896</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>3.3762001991271973</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>49.07732009887695</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>-35.19378662109375</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>1024.5262451171875</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P83" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q83" s="2" t="n">
+        <v>21.700000762939453</v>
+      </c>
+      <c r="R83" s="2" t="n">
+        <v>17.340499877929688</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 08:44:00</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>0.17882362008094788</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>0.20406021177768707</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>2.721489191055298</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>2.599801540374756</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>2.6145520210266113</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>3.4374001026153564</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>49.15413284301758</v>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>-34.63467788696289</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>1024.4083251953125</v>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P84" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q84" s="2" t="n">
+        <v>21.20067024230957</v>
+      </c>
+      <c r="R84" s="2" t="n">
+        <v>18.12720489501953</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 09:44:00</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>0.19874423742294312</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>0.20706956088542938</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>2.7401816844940186</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>2.6311352252960205</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>2.6343259811401367</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>3.3966000080108643</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>49.233943939208984</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>-34.067039489746094</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>1024.290283203125</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P85" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q85" s="2" t="n">
+        <v>22.25712776184082</v>
+      </c>
+      <c r="R85" s="2" t="n">
+        <v>18.358993530273438</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 10:44:00</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>0.0071870009414851665</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>0.21007892489433289</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>2.758934259414673</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>2.6451759338378906</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>2.654221534729004</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>3.4680001735687256</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>49.30904006958008</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>-33.50810623168945</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>1024.17236328125</v>
+      </c>
+      <c r="M86" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P86" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="Q86" s="2" t="n">
+        <v>22.799999237060547</v>
+      </c>
+      <c r="R86" s="2" t="n">
+        <v>18.799999237060547</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 11:44:00</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>0.023962752893567085</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0.2130882740020752</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>2.7549805641174316</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>2.6267592906951904</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>2.6395065784454346</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>3.4476001262664795</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>49.380126953125</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>-32.95188903808594</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>1024.054443359375</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N87" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P87" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q87" s="2" t="n">
+        <v>22.5002498626709</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>18.799999237060547</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 12:44:00</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>0.040738508105278015</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>0.2160976231098175</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>2.747042179107666</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>2.6201093196868896</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>2.63334059715271</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>3.3762001991271973</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>49.45112228393555</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>-32.39282989501953</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>1023.9364013671875</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P88" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q88" s="2" t="n">
+        <v>22.97496795654297</v>
+      </c>
+      <c r="R88" s="2" t="n">
+        <v>18.95077133178711</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 13:44:00</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>0.0575142577290535</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>0.21910697221755981</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>2.7716357707977295</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>2.637519359588623</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>2.656301259994507</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>3.3507003784179688</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>49.519264221191406</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>-31.834272384643555</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>1023.8184814453125</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="Q89" s="2" t="n">
+        <v>22.401201248168945</v>
+      </c>
+      <c r="R89" s="2" t="n">
+        <v>17.970312118530273</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 14:44:00</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>0.07429001480340958</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>0.22211632132530212</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>2.7373998165130615</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>2.621973752975464</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>2.6301636695861816</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>3.3201000690460205</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>49.57889938354492</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>-31.271345138549805</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>1023.7005004882812</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="Q90" s="2" t="n">
+        <v>22.299833297729492</v>
+      </c>
+      <c r="R90" s="2" t="n">
+        <v>18.411447525024414</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 15:44:00</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>0.09106576442718506</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>0.22512567043304443</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>2.7689435482025146</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>2.6498045921325684</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>2.659341335296631</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>3.325200080871582</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>49.640525817871094</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>-30.700782775878906</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>1023.5438232421875</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P91" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="Q91" s="2" t="n">
+        <v>22.199960708618164</v>
+      </c>
+      <c r="R91" s="2" t="n">
+        <v>18.318063735961914</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 16:44:00</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>0.10784152150154114</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>0.22813503444194794</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>2.7513420581817627</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>2.6410036087036133</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>2.6476969718933105</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>3.304800510406494</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>49.7008056640625</v>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>-30.12030029296875</v>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>1023.1644287109375</v>
+      </c>
+      <c r="M92" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N92" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P92" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q92" s="2" t="n">
+        <v>22.699600219726562</v>
+      </c>
+      <c r="R92" s="2" t="n">
+        <v>19.564870834350586</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 17:44:00</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>0.12461727112531662</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>0.23114438354969025</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>2.7410671710968018</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>2.62823486328125</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>2.6284899711608887</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>3.2690999507904053</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J93" s="2" t="n">
+        <v>49.76021957397461</v>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>-29.527040481567383</v>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>1022.7850341796875</v>
+      </c>
+      <c r="M93" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N93" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O93" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P93" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q93" s="2" t="n">
+        <v>22.267112731933594</v>
+      </c>
+      <c r="R93" s="2" t="n">
+        <v>20.586219787597656</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 18:44:00</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>0.1413930207490921</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>0.23415373265743256</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>2.7620720863342285</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>2.6365833282470703</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>2.6484668254852295</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>3.335400342941284</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>49.81771469116211</v>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>-28.930877685546875</v>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>1022.4057006835938</v>
+      </c>
+      <c r="M94" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N94" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O94" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P94" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="Q94" s="2" t="n">
+        <v>22.499849319458008</v>
+      </c>
+      <c r="R94" s="2" t="n">
+        <v>18.38306999206543</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 19:44:00</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>0.15816877782344818</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>0.23716308176517487</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>2.749845266342163</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>2.644493818283081</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>2.6486473083496094</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>3.355800151824951</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>49.86448669433594</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>-28.3421573638916</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>1022.0263061523438</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N95" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P95" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q95" s="2" t="n">
+        <v>22.69955062866211</v>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v>18.598310470581055</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 20:44:00</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>0.17494453489780426</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>0.24017243087291718</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>2.742739677429199</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>2.6270275115966797</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>2.6303279399871826</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>3.2895002365112305</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>49.910865783691406</v>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>-27.765466690063477</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>1021.6469116210938</v>
+      </c>
+      <c r="M96" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N96" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O96" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P96" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="Q96" s="2" t="n">
+        <v>22.333276748657227</v>
+      </c>
+      <c r="R96" s="2" t="n">
+        <v>20.855667114257812</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 21:44:00</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>0.19172027707099915</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>0.24318177998065948</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>2.7484681606292725</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>2.627403974533081</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>2.6421256065368652</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>3.3201000690460205</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>49.95545959472656</v>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>-27.192272186279297</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>1021.2675170898438</v>
+      </c>
+      <c r="M97" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N97" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O97" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P97" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="Q97" s="2" t="n">
+        <v>23.299999237060547</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>18.35060691833496</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 22:44:00</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>0.008645412512123585</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>0.246191143989563</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>2.7757301330566406</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>2.623058557510376</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>2.610069751739502</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>3.218100070953369</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>49.99532699584961</v>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>-26.611942291259766</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>1020.88818359375</v>
+      </c>
+      <c r="M98" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N98" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O98" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P98" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="Q98" s="2" t="n">
+        <v>22.72010040283203</v>
+      </c>
+      <c r="R98" s="2" t="n">
+        <v>19.679298400878906</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-11 23:44:00</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>0.04026833921670914</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>0.2492004930973053</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>2.7706170082092285</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>2.6128854751586914</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>2.6190688610076904</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>3.1620001792907715</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>50.03633499145508</v>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>-26.024097442626953</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>1020.5087890625</v>
+      </c>
+      <c r="M99" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N99" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O99" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P99" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q99" s="2" t="n">
+        <v>23.588865280151367</v>
+      </c>
+      <c r="R99" s="2" t="n">
+        <v>18.71837615966797</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 00:44:00</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>0.07189126312732697</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>0.2522098422050476</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>2.755894184112549</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>2.6180872917175293</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>2.6255109310150146</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>3.1518001556396484</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>50.0709228515625</v>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>-25.439306259155273</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>1020.12939453125</v>
+      </c>
+      <c r="M100" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N100" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O100" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P100" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q100" s="2" t="n">
+        <v>23.600168228149414</v>
+      </c>
+      <c r="R100" s="2" t="n">
+        <v>18.600000381469727</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 01:44:00</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>0.1035141870379448</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>0.2552191913127899</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>2.7790963649749756</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>2.6267764568328857</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>2.635725259780884</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>3.049800157546997</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>50.105281829833984</v>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>-24.85558319091797</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>1019.75</v>
+      </c>
+      <c r="M101" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N101" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O101" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P101" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q101" s="2" t="n">
+        <v>22.980737686157227</v>
+      </c>
+      <c r="R101" s="2" t="n">
+        <v>18.799999237060547</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 02:44:00</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>0.13513711094856262</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>0.2582285404205322</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>2.782015562057495</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>2.6206135749816895</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>2.621411085128784</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>3.009000301361084</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>50.13676071166992</v>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>-24.266260147094727</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>1019.3706665039062</v>
+      </c>
+      <c r="M102" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N102" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O102" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P102" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="Q102" s="2" t="n">
+        <v>22.59979820251465</v>
+      </c>
+      <c r="R102" s="2" t="n">
+        <v>18.06228256225586</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 03:44:00</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>0.16676004230976105</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>0.26123788952827454</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>2.775050640106201</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>2.638052463531494</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>2.6546928882598877</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>3.105900287628174</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="2" t="n">
+        <v>50.16154861450195</v>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>-23.671703338623047</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>1018.9912719726562</v>
+      </c>
+      <c r="M103" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N103" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O103" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P103" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q103" s="2" t="n">
+        <v>22.333221435546875</v>
+      </c>
+      <c r="R103" s="2" t="n">
+        <v>18.954566955566406</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 04:44:00</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>0.19838295876979828</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>0.26424723863601685</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>2.781778335571289</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>2.6406612396240234</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>2.661315441131592</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>3.0752999782562256</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="2" t="n">
+        <v>50.185115814208984</v>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>-23.072452545166016</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>1018.6118774414062</v>
+      </c>
+      <c r="M104" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N104" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O104" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P104" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q104" s="2" t="n">
+        <v>23.200000762939453</v>
+      </c>
+      <c r="R104" s="2" t="n">
+        <v>19.161203384399414</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 05:44:00</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>0.17781990766525269</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>0.26725658774375916</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>2.7607498168945312</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>2.6219422817230225</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>2.6243181228637695</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>3.1110000610351562</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J105" s="2" t="n">
+        <v>50.206600189208984</v>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>-22.466726303100586</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>1018.2325439453125</v>
+      </c>
+      <c r="M105" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N105" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O105" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P105" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="Q105" s="2" t="n">
+        <v>23.325206756591797</v>
+      </c>
+      <c r="R105" s="2" t="n">
+        <v>18.73654556274414</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 06:44:00</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>0.007517896592617035</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>0.27026593685150146</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>2.762739419937134</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>2.625488519668579</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>2.6238462924957275</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>3.1314001083374023</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>50.228004455566406</v>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>-21.86377716064453</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>1017.8531494140625</v>
+      </c>
+      <c r="M106" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N106" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O106" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P106" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="Q106" s="2" t="n">
+        <v>23.499393463134766</v>
+      </c>
+      <c r="R106" s="2" t="n">
+        <v>18.928386688232422</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 07:44:00</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>0.029600603505969048</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>0.27327531576156616</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>2.7669999599456787</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>2.621673107147217</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>2.613750696182251</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>3.1008002758026123</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="2" t="n">
+        <v>50.24077224731445</v>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>-21.26146697998047</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>1017.4987182617188</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N107" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O107" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P107" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="Q107" s="2" t="n">
+        <v>23.150026321411133</v>
+      </c>
+      <c r="R107" s="2" t="n">
+        <v>18.975828170776367</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 08:44:00</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>0.05168331041932106</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>0.27628466486930847</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>2.7744107246398926</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>2.6295175552368164</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>2.6357502937316895</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>3.218100070953369</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J108" s="2" t="n">
+        <v>50.251773834228516</v>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>-20.657649993896484</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>1017.4801025390625</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N108" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O108" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P108" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="Q108" s="2" t="n">
+        <v>23.80120086669922</v>
+      </c>
+      <c r="R108" s="2" t="n">
+        <v>18.429481506347656</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:44:00</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>0.07376601547002792</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>0.2792940139770508</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>2.7626593112945557</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>2.6121129989624023</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>2.6097748279571533</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>3.1518001556396484</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J109" s="2" t="n">
+        <v>50.26008987426758</v>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>-20.061119079589844</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>1017.4615478515625</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N109" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O109" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P109" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="Q109" s="2" t="n">
+        <v>22.949974060058594</v>
+      </c>
+      <c r="R109" s="2" t="n">
+        <v>18.95793914794922</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 10:44:00</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>0.09584872424602509</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>0.2823033630847931</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>2.796182870864868</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>2.645750045776367</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>2.6580538749694824</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>3.345599889755249</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J110" s="2" t="n">
+        <v>50.27025604248047</v>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>-19.461610794067383</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>1017.4429321289062</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N110" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O110" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P110" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q110" s="2" t="n">
+        <v>23.799999237060547</v>
+      </c>
+      <c r="R110" s="2" t="n">
+        <v>19.121200561523438</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 11:44:00</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>0.11793142557144165</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>0.2853127121925354</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>2.762324333190918</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>2.616349935531616</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>2.625192403793335</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>3.294600009918213</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>50.26990509033203</v>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>-18.863597869873047</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>1017.42431640625</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="N111" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O111" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P111" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="Q111" s="2" t="n">
+        <v>23.24970054626465</v>
+      </c>
+      <c r="R111" s="2" t="n">
+        <v>19.126720428466797</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 12:44:00</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>0.14001412689685822</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>0.2883220613002777</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>2.7830491065979004</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>2.635787010192871</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>2.64540433883667</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>3.2690999507904053</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J112" s="2" t="n">
+        <v>50.27210998535156</v>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>-18.272119522094727</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>1017.40576171875</v>
+      </c>
+      <c r="M112" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N112" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O112" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P112" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q112" s="2" t="n">
+        <v>23.20050048828125</v>
+      </c>
+      <c r="R112" s="2" t="n">
+        <v>20.792743682861328</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 13:44:00</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>0.16209684312343597</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>0.29133141040802</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>2.759735345840454</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>2.635798454284668</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>2.6424005031585693</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>3.3099002838134766</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>50.26546859741211</v>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>-17.67582130432129</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>1017.3871459960938</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N113" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O113" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P113" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q113" s="2" t="n">
+        <v>23.35050392150879</v>
+      </c>
+      <c r="R113" s="2" t="n">
+        <v>19.339811325073242</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 14:44:00</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>0.18417954444885254</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>0.29434075951576233</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>2.762317419052124</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>2.638835906982422</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>2.6452889442443848</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>3.248699903488159</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J114" s="2" t="n">
+        <v>50.26953887939453</v>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>-17.089954376220703</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>1017.3685913085938</v>
+      </c>
+      <c r="M114" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="N114" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O114" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P114" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q114" s="2" t="n">
+        <v>23.600133895874023</v>
+      </c>
+      <c r="R114" s="2" t="n">
+        <v>19.67345428466797</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 15:44:00</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>0.0017982872668653727</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>0.29735010862350464</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>2.77030086517334</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>2.6258394718170166</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>2.641392946243286</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>3.126300096511841</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J115" s="2" t="n">
+        <v>50.26423263549805</v>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>-16.494140625</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>1017.3499755859375</v>
+      </c>
+      <c r="M115" s="2" t="n">
+        <v>9.000300407409668</v>
+      </c>
+      <c r="N115" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O115" s="2" t="n">
+        <v>8.59939956665039</v>
+      </c>
+      <c r="P115" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="Q115" s="2" t="n">
+        <v>23.059879302978516</v>
+      </c>
+      <c r="R115" s="2" t="n">
+        <v>20.54421615600586</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 16:44:00</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>0.03750799968838692</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>0.30035945773124695</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>2.7804477214813232</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>2.6382579803466797</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>2.6395058631896973</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>3.2385001182556152</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J116" s="2" t="n">
+        <v>50.23670959472656</v>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>-15.900289535522461</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>1017.3313598632812</v>
+      </c>
+      <c r="M116" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N116" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O116" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P116" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="Q116" s="2" t="n">
+        <v>22.801496505737305</v>
+      </c>
+      <c r="R116" s="2" t="n">
+        <v>20.22641944885254</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 17:44:00</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>0.009753118269145489</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>0.6948519349098206</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>2.478180408477783</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>2.3722784519195557</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>2.368584156036377</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J117" s="2" t="n">
+        <v>50.224796295166016</v>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>-15.376986503601074</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>1017.3128051757812</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="N117" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="O117" s="2" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="P117" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q117" s="2" t="n">
+        <v>20.685649871826172</v>
+      </c>
+      <c r="R117" s="2" t="n">
+        <v>20.459184646606445</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 18:44:00</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>0.04432294890284538</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>0.78239905834198</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>2.635528564453125</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>2.5227301120758057</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>2.5347797870635986</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J118" s="2" t="n">
+        <v>50.20832443237305</v>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>-14.853355407714844</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>1017.294189453125</v>
+      </c>
+      <c r="M118" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="N118" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O118" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P118" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q118" s="2" t="n">
+        <v>20.70060157775879</v>
+      </c>
+      <c r="R118" s="2" t="n">
+        <v>19.77608299255371</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 19:44:00</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>0.078892782330513</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>0.772934079170227</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>2.6399412155151367</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>2.529421091079712</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>2.531224012374878</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J119" s="2" t="n">
+        <v>50.18998336791992</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>-14.327553749084473</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>1017.2755737304688</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="N119" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O119" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P119" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q119" s="2" t="n">
+        <v>20.600101470947266</v>
+      </c>
+      <c r="R119" s="2" t="n">
+        <v>19.653528213500977</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 20:44:00</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>0.11346261203289032</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>0.8292638659477234</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>2.6170778274536133</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>2.511145830154419</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>2.512105703353882</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J120" s="2" t="n">
+        <v>50.168357849121094</v>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>-13.79701042175293</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>1017.2570190429688</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N120" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O120" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="P120" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q120" s="2" t="n">
+        <v>21.24002456665039</v>
+      </c>
+      <c r="R120" s="2" t="n">
+        <v>19.346513748168945</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 21:44:00</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>0.14803244173526764</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>0.6715595722198486</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>2.4369089603424072</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>2.34081768989563</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J121" s="2" t="n">
+        <v>50.14994430541992</v>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>-13.374902725219727</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>1017.2384033203125</v>
+      </c>
+      <c r="M121" s="2" t="n">
+        <v>2.799999952316284</v>
+      </c>
+      <c r="N121" s="2" t="n">
+        <v>2.9000000953674316</v>
+      </c>
+      <c r="O121" s="2" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="P121" s="2" t="n">
+        <v>2.799999952316284</v>
+      </c>
+      <c r="Q121" s="2" t="n">
+        <v>15.899999618530273</v>
+      </c>
+      <c r="R121" s="2" t="n">
+        <v>18.837377548217773</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 22:44:00</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>0.18260228633880615</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>0.8860656023025513</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>2.4008212089538574</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>2.294605255126953</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J122" s="2" t="n">
+        <v>50.12828063964844</v>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>-12.952742576599121</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>1017.2197875976562</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>2.799999952316284</v>
+      </c>
+      <c r="N122" s="2" t="n">
+        <v>2.9000000953674316</v>
+      </c>
+      <c r="O122" s="2" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="P122" s="2" t="n">
+        <v>2.799999952316284</v>
+      </c>
+      <c r="Q122" s="2" t="n">
+        <v>16.285648345947266</v>
+      </c>
+      <c r="R122" s="2" t="n">
+        <v>18.788000106811523</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-12 23:44:00</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>0.17873796820640564</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>0.41625672578811646</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>2.3970701694488525</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>2.2913095951080322</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J123" s="2" t="n">
+        <v>50.11048126220703</v>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>-12.533697128295898</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>1017.2012329101562</v>
+      </c>
+      <c r="M123" s="2" t="n">
+        <v>2.799999952316284</v>
+      </c>
+      <c r="N123" s="2" t="n">
+        <v>2.9000000953674316</v>
+      </c>
+      <c r="O123" s="2" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="P123" s="2" t="n">
+        <v>2.799999952316284</v>
+      </c>
+      <c r="Q123" s="2" t="n">
+        <v>16.200000762939453</v>
+      </c>
+      <c r="R123" s="2" t="n">
+        <v>18.90769386291504</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 00:44:00</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>0.0987924337387085</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>0.728734016418457</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>2.7196686267852783</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>2.5885918140411377</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>2.6094295978546143</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J124" s="2" t="n">
+        <v>50.0821533203125</v>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>-12.081513404846191</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>1017.2316284179688</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N124" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O124" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P124" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q124" s="2" t="n">
+        <v>21.333276748657227</v>
+      </c>
+      <c r="R124" s="2" t="n">
+        <v>19.131885528564453</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 01:44:00</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>0.2037464678287506</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>0.8675142526626587</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>2.7388103008270264</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>2.614114761352539</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>2.6652650833129883</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J125" s="2" t="n">
+        <v>50.05198669433594</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>-11.542377471923828</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>1017.2653198242188</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N125" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P125" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q125" s="2" t="n">
+        <v>21.224956512451172</v>
+      </c>
+      <c r="R125" s="2" t="n">
+        <v>19.601743698120117</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 02:44:00</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>0.019398700445890427</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>0.800289511680603</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>2.7083194255828857</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>2.5632317066192627</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>2.562680959701538</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J126" s="2" t="n">
+        <v>50.01869201660156</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>-11.003158569335938</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>1017.2989501953125</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N126" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O126" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="P126" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q126" s="2" t="n">
+        <v>20.799999237060547</v>
+      </c>
+      <c r="R126" s="2" t="n">
+        <v>19.728147506713867</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 03:44:00</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>0.045786213129758835</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>0.576528787612915</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>2.6615631580352783</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>2.5299646854400635</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>2.5683295726776123</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J127" s="2" t="n">
+        <v>49.98033142089844</v>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>-10.469122886657715</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>1017.3326416015625</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N127" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P127" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q127" s="2" t="n">
+        <v>21.150226593017578</v>
+      </c>
+      <c r="R127" s="2" t="n">
+        <v>19.764291763305664</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 04:44:00</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>0.07217372953891754</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>0.6810021996498108</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>2.6752312183380127</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>2.5398285388946533</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>2.580925464630127</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J128" s="2" t="n">
+        <v>49.940574645996094</v>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>-9.93787956237793</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>1017.3662719726562</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N128" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P128" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q128" s="2" t="n">
+        <v>20.566543579101562</v>
+      </c>
+      <c r="R128" s="2" t="n">
+        <v>19.801546096801758</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 05:44:00</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>0.09856124222278595</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>0.6405797600746155</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>2.6918725967407227</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>2.5712804794311523</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>2.6245439052581787</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J129" s="2" t="n">
+        <v>49.899436950683594</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>-9.40900707244873</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>1017.3999633789062</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N129" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O129" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P129" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q129" s="2" t="n">
+        <v>21.200532913208008</v>
+      </c>
+      <c r="R129" s="2" t="n">
+        <v>19.930278778076172</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 06:44:00</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>0.12494875490665436</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>0.8553532361984253</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>2.7170569896698</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>2.576282262802124</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>2.621994733810425</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J130" s="2" t="n">
+        <v>49.85543441772461</v>
+      </c>
+      <c r="K130" s="2" t="n">
+        <v>-8.879671096801758</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>1017.43359375</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N130" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O130" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P130" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q130" s="2" t="n">
+        <v>20.3002986907959</v>
+      </c>
+      <c r="R130" s="2" t="n">
+        <v>20.059011459350586</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 07:44:00</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>0.15133626759052277</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>0.7773569226264954</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>2.7247025966644287</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>2.606480836868286</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>2.626612424850464</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="2" t="n">
+        <v>49.799503326416016</v>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>-8.354466438293457</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>1017.46728515625</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N131" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O131" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P131" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q131" s="2" t="n">
+        <v>21.100900650024414</v>
+      </c>
+      <c r="R131" s="2" t="n">
+        <v>20.65804100036621</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 08:44:00</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>0.17772378027439117</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>0.7686381936073303</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>2.7395827770233154</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>2.6262969970703125</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>2.6378018856048584</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J132" s="2" t="n">
+        <v>49.75914764404297</v>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>-7.823433876037598</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>1017.5009155273438</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N132" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O132" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P132" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q132" s="2" t="n">
+        <v>21.32500648498535</v>
+      </c>
+      <c r="R132" s="2" t="n">
+        <v>21.040761947631836</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 09:44:00</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>0.5367178320884705</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>0.6723353862762451</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>2.615318775177002</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>2.492854356765747</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>2.5403356552124023</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J133" s="2" t="n">
+        <v>49.71500778198242</v>
+      </c>
+      <c r="K133" s="2" t="n">
+        <v>-7.3707146644592285</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>1017.5346069335938</v>
+      </c>
+      <c r="M133" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="N133" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O133" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P133" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q133" s="2" t="n">
+        <v>20.70030403137207</v>
+      </c>
+      <c r="R133" s="2" t="n">
+        <v>20.33466911315918</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 10:44:00</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>0.022159740328788757</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>0.7936508655548096</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>2.7849881649017334</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>2.658576250076294</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>2.644503355026245</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J134" s="2" t="n">
+        <v>49.66179275512695</v>
+      </c>
+      <c r="K134" s="2" t="n">
+        <v>-6.842930316925049</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>1017.5682373046875</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N134" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O134" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P134" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q134" s="2" t="n">
+        <v>21.299999237060547</v>
+      </c>
+      <c r="R134" s="2" t="n">
+        <v>22.55249786376953</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 11:44:00</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>0.052622441202402115</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>0.7361619472503662</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>2.758697271347046</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>2.6483514308929443</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>2.6426851749420166</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J135" s="2" t="n">
+        <v>49.635765075683594</v>
+      </c>
+      <c r="K135" s="2" t="n">
+        <v>-6.30833101272583</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>1017.6019287109375</v>
+      </c>
+      <c r="M135" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N135" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O135" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P135" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q135" s="2" t="n">
+        <v>20.699975967407227</v>
+      </c>
+      <c r="R135" s="2" t="n">
+        <v>22.799999237060547</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 12:44:00</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>0.08308514207601547</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>0.786300778388977</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>2.766805648803711</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>2.6631386280059814</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>2.6740660667419434</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J136" s="2" t="n">
+        <v>49.6585693359375</v>
+      </c>
+      <c r="K136" s="2" t="n">
+        <v>-5.765814304351807</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>1017.6355590820312</v>
+      </c>
+      <c r="M136" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N136" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O136" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P136" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q136" s="2" t="n">
+        <v>21.77120018005371</v>
+      </c>
+      <c r="R136" s="2" t="n">
+        <v>23.15026092529297</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 13:44:00</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>0.11354783922433853</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>0.7026979327201843</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>2.7731077671051025</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>2.6445634365081787</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>2.670257806777954</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J137" s="2" t="n">
+        <v>49.68925857543945</v>
+      </c>
+      <c r="K137" s="2" t="n">
+        <v>-5.214562892913818</v>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>1017.6692504882812</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N137" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O137" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P137" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q137" s="2" t="n">
+        <v>20.96595573425293</v>
+      </c>
+      <c r="R137" s="2" t="n">
+        <v>23.67890739440918</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 14:44:00</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>0.6454228758811951</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>0.7505078315734863</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>2.8157432079315186</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>2.6705355644226074</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>2.6910512447357178</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J138" s="2" t="n">
+        <v>49.79396057128906</v>
+      </c>
+      <c r="K138" s="2" t="n">
+        <v>-4.69329309463501</v>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>1017.702880859375</v>
+      </c>
+      <c r="M138" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N138" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O138" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P138" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="Q138" s="2" t="n">
+        <v>21.70013427734375</v>
+      </c>
+      <c r="R138" s="2" t="n">
+        <v>22.996118545532227</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 15:44:00</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>0.028942933306097984</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>0.845626711845398</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>2.784450054168701</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>2.650181293487549</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>2.685746431350708</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J139" s="2" t="n">
+        <v>49.89175796508789</v>
+      </c>
+      <c r="K139" s="2" t="n">
+        <v>-4.161281585693359</v>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>1017.736572265625</v>
+      </c>
+      <c r="M139" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N139" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O139" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P139" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="Q139" s="2" t="n">
+        <v>21.399198532104492</v>
+      </c>
+      <c r="R139" s="2" t="n">
+        <v>22.844602584838867</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 16:44:00</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>0.059412047266960144</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>0.7889613509178162</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>2.796712875366211</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>2.670799732208252</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>2.6572165489196777</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J140" s="2" t="n">
+        <v>49.98474884033203</v>
+      </c>
+      <c r="K140" s="2" t="n">
+        <v>-3.6259448528289795</v>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>1017.7702026367188</v>
+      </c>
+      <c r="M140" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N140" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O140" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P140" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="Q140" s="2" t="n">
+        <v>21.09950065612793</v>
+      </c>
+      <c r="R140" s="2" t="n">
+        <v>21.1850528717041</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 17:44:00</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>0.08988115936517715</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>0.7688643336296082</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>2.786485433578491</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>2.6749825477600098</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>2.6730194091796875</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J141" s="2" t="n">
+        <v>50.14136505126953</v>
+      </c>
+      <c r="K141" s="2" t="n">
+        <v>-3.1305525302886963</v>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>1017.7638549804688</v>
+      </c>
+      <c r="M141" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N141" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O141" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P141" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="Q141" s="2" t="n">
+        <v>20.799598693847656</v>
+      </c>
+      <c r="R141" s="2" t="n">
+        <v>20.856815338134766</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 18:44:00</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>0.12035027891397476</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>0.691243588924408</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>2.7705509662628174</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>2.6480016708374023</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>2.6795907020568848</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J142" s="2" t="n">
+        <v>50.24002456665039</v>
+      </c>
+      <c r="K142" s="2" t="n">
+        <v>-2.601983070373535</v>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>1017.44677734375</v>
+      </c>
+      <c r="M142" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N142" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O142" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P142" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q142" s="2" t="n">
+        <v>21.600000381469727</v>
+      </c>
+      <c r="R142" s="2" t="n">
+        <v>19.72965431213379</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 19:44:00</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>0.15081939101219177</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>0.6940259337425232</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>1.681666374206543</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>1.5270509719848633</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>1.5474624633789062</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J143" s="2" t="n">
+        <v>50.296817779541016</v>
+      </c>
+      <c r="K143" s="2" t="n">
+        <v>-2.0710363388061523</v>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>1017.1296997070312</v>
+      </c>
+      <c r="M143" s="2" t="n">
+        <v>3.1000001430511475</v>
+      </c>
+      <c r="N143" s="2" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="O143" s="2" t="n">
+        <v>2.9000000953674316</v>
+      </c>
+      <c r="P143" s="2" t="n">
+        <v>3.1000001430511475</v>
+      </c>
+      <c r="Q143" s="2" t="n">
+        <v>16.899799346923828</v>
+      </c>
+      <c r="R143" s="2" t="n">
+        <v>19.204805374145508</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 20:44:00</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>0.18128851056098938</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>0.865537166595459</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>1.5857429504394531</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>1.5274300575256348</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>1.5479081869125366</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J144" s="2" t="n">
+        <v>50.364192962646484</v>
+      </c>
+      <c r="K144" s="2" t="n">
+        <v>-1.6891406774520874</v>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>1016.8126220703125</v>
+      </c>
+      <c r="M144" s="2" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="N144" s="2" t="n">
+        <v>2.799999952316284</v>
+      </c>
+      <c r="O144" s="2" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="P144" s="2" t="n">
+        <v>2.799999952316284</v>
+      </c>
+      <c r="Q144" s="2" t="n">
+        <v>15.800000190734863</v>
+      </c>
+      <c r="R144" s="2" t="n">
+        <v>19.470645904541016</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 21:44:00</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>0.0013399001909419894</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>0.6541088223457336</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>1.4296454191207886</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>1.3846237659454346</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>1.4249963760375977</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J145" s="2" t="n">
+        <v>50.443424224853516</v>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>-1.3429054021835327</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>1016.49560546875</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>2.299999952316284</v>
+      </c>
+      <c r="N145" s="2" t="n">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="O145" s="2" t="n">
+        <v>2.200000047683716</v>
+      </c>
+      <c r="P145" s="2" t="n">
+        <v>2.299999952316284</v>
+      </c>
+      <c r="Q145" s="2" t="n">
+        <v>15.299595832824707</v>
+      </c>
+      <c r="R145" s="2" t="n">
+        <v>19.223447799682617</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 22:44:00</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>0.018001079559326172</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>0.7586037516593933</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>1.95111083984375</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>1.896108865737915</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J146" s="2" t="n">
+        <v>50.50894546508789</v>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>-1.0444108247756958</v>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>1016.1785278320312</v>
+      </c>
+      <c r="M146" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N146" s="2" t="n">
+        <v>2.199500560760498</v>
+      </c>
+      <c r="O146" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P146" s="2" t="n">
+        <v>2.200000047683716</v>
+      </c>
+      <c r="Q146" s="2" t="n">
+        <v>13.899999618530273</v>
+      </c>
+      <c r="R146" s="2" t="n">
+        <v>19.51667022705078</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-13 23:44:00</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>0.03466225787997246</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>0.47402578592300415</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>1.5067154169082642</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>1.4687930345535278</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>0.8313000202178955</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J147" s="2" t="n">
+        <v>50.63499450683594</v>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>-0.9141613841056824</v>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>1015.8614501953125</v>
+      </c>
+      <c r="M147" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N147" s="2" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="O147" s="2" t="n">
+        <v>1.2000000476837158</v>
+      </c>
+      <c r="P147" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="Q147" s="2" t="n">
+        <v>7.899733066558838</v>
+      </c>
+      <c r="R147" s="2" t="n">
+        <v>19.79631996154785</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-14 00:44:00</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>0.051323436200618744</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>0.005361275281757116</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>0.9879833459854126</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>0.9158287644386292</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>2.519400119781494</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J148" s="2" t="n">
+        <v>50.76215744018555</v>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>-1.188116431236267</v>
+      </c>
+      <c r="L148" s="2" t="n">
+        <v>1015.5443725585938</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="N148" s="2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="O148" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="P148" s="2" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="Q148" s="2" t="n">
+        <v>11.928325653076172</v>
+      </c>
+      <c r="R148" s="2" t="n">
+        <v>20.272510528564453</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-14 01:44:00</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>0.06798461824655533</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>0.017658064141869545</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>0.817259669303894</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>0.730789303779602</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>2.223600149154663</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>50.83265686035156</v>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>-1.3140416145324707</v>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>1014.889404296875</v>
+      </c>
+      <c r="M149" s="2" t="n">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="N149" s="2" t="n">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="O149" s="2" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="P149" s="2" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="Q149" s="2" t="n">
+        <v>7.200301170349121</v>
+      </c>
+      <c r="R149" s="2" t="n">
+        <v>19.545408248901367</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-14 02:44:00</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>0.08464579284191132</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>0.029954852536320686</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>0.776784360408783</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>0.6915342211723328</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>2.121600389480591</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J150" s="2" t="n">
+        <v>50.90602111816406</v>
+      </c>
+      <c r="K150" s="2" t="n">
+        <v>-1.4402735233306885</v>
+      </c>
+      <c r="L150" s="2" t="n">
+        <v>1013.951904296875</v>
+      </c>
+      <c r="M150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O150" s="2" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="P150" s="2" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="Q150" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R150" s="2" t="n">
+        <v>19.11707878112793</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-14 03:44:00</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>0.1013069748878479</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>0.43960997462272644</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>0.7769379615783691</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>0.8850720524787903</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>50.90453338623047</v>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>-1.4292806386947632</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>1013.0144653320312</v>
+      </c>
+      <c r="M151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>0.26923203468322754</v>
+      </c>
+      <c r="R151" s="2" t="n">
+        <v>19.399999618530273</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
           <t>2023-07-14 04:44:00</t>
         </is>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B152" s="2" t="n">
         <v>0.11796814948320389</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C152" s="2" t="n">
         <v>0.5139647126197815</v>
       </c>
-      <c r="D77" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E77" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F77" s="2" t="n">
+      <c r="D152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F152" s="2" t="n">
         <v>1.4880976676940918</v>
       </c>
-      <c r="G77" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H77" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I77" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J77" s="2" t="n">
+      <c r="G152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J152" s="2" t="n">
         <v>50.904518127441406</v>
       </c>
-      <c r="K77" s="2" t="n">
+      <c r="K152" s="2" t="n">
         <v>-1.4292832612991333</v>
       </c>
-      <c r="L77" s="2" t="n">
+      <c r="L152" s="2" t="n">
         <v>1012.0770263671875</v>
       </c>
-      <c r="M77" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N77" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O77" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P77" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q77" s="2" t="n">
+      <c r="M152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q152" s="2" t="n">
         <v>0.1252145618200302</v>
       </c>
-      <c r="R77" s="2" t="n">
+      <c r="R152" s="2" t="n">
         <v>19.422304153442383</v>
       </c>
     </row>
